--- a/storage/excel/summary9_by_tool_fuel.xlsx
+++ b/storage/excel/summary9_by_tool_fuel.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="46" r:id="rId1"/>
     <sheet name="2" sheetId="47" r:id="rId2"/>
     <sheet name="3" sheetId="48" r:id="rId3"/>
+    <sheet name="4" sheetId="49" r:id="rId4"/>
+    <sheet name="5" sheetId="50" r:id="rId5"/>
+    <sheet name="6" sheetId="51" r:id="rId6"/>
+    <sheet name="7" sheetId="52" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="45">
   <si>
     <t>อุปกรณ์ในหมวดประกอบอาหาร</t>
   </si>
@@ -121,6 +125,42 @@
   <si>
     <t xml:space="preserve">   ใช้น้ำมันแก๊สโซฮอล์ 95</t>
   </si>
+  <si>
+    <t>รถยนต์นั่งส่วนบุคคล</t>
+  </si>
+  <si>
+    <t>ใช้น้ำมันแก๊สโซฮอล์ อี 20</t>
+  </si>
+  <si>
+    <t>ใช้น้ำมันแก๊สโซฮอล์ อี 85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ใช้น้ำมันแก๊สโซฮอล์ อี 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ใช้น้ำมันแก๊สโซฮอล์ อี 85</t>
+  </si>
+  <si>
+    <t>รถบรรทุกส่วนบุคคล</t>
+  </si>
+  <si>
+    <t>ใช้น้ำมันดีเซล</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ใช้น้ำมันดีเซล</t>
+  </si>
+  <si>
+    <t>อุปกรณ์ในหมวดการเกษตรกรรม</t>
+  </si>
+  <si>
+    <t>เครื่องยนต์ขนาดเล็ก</t>
+  </si>
+  <si>
+    <t>รถตัดหญ้า</t>
+  </si>
+  <si>
+    <t>ลิตร</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +171,7 @@
     <numFmt numFmtId="187" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="188" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +238,12 @@
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -230,13 +276,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -278,9 +361,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -289,9 +369,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -370,6 +447,86 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -660,173 +817,173 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="9" style="23"/>
-    <col min="3" max="3" width="5.125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="23" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="32" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="23" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" style="23"/>
-    <col min="12" max="12" width="10.625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="9" style="23"/>
-    <col min="14" max="14" width="5.125" style="23" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="4.5" style="23" customWidth="1"/>
-    <col min="17" max="17" width="6.625" style="23" customWidth="1"/>
-    <col min="18" max="18" width="4.5" style="23" customWidth="1"/>
-    <col min="19" max="19" width="6.625" style="23" customWidth="1"/>
-    <col min="20" max="21" width="4.5" style="23" customWidth="1"/>
-    <col min="22" max="23" width="9" style="23"/>
-    <col min="24" max="24" width="10.625" style="23" customWidth="1"/>
-    <col min="25" max="25" width="9" style="23"/>
-    <col min="26" max="26" width="8.25" style="23" customWidth="1"/>
-    <col min="27" max="27" width="11.125" style="23" customWidth="1"/>
-    <col min="28" max="28" width="10.375" style="23" customWidth="1"/>
-    <col min="29" max="29" width="6.625" style="23" customWidth="1"/>
-    <col min="30" max="30" width="10.375" style="23" customWidth="1"/>
-    <col min="31" max="33" width="6.625" style="23" customWidth="1"/>
-    <col min="34" max="35" width="9" style="23"/>
-    <col min="36" max="36" width="10.625" style="23" customWidth="1"/>
-    <col min="37" max="37" width="9" style="23"/>
-    <col min="38" max="38" width="5.125" style="23" customWidth="1"/>
-    <col min="39" max="39" width="6.625" style="23" customWidth="1"/>
-    <col min="40" max="40" width="4.5" style="23" customWidth="1"/>
-    <col min="41" max="41" width="6.625" style="23" customWidth="1"/>
-    <col min="42" max="42" width="4.5" style="23" customWidth="1"/>
-    <col min="43" max="43" width="6.625" style="23" customWidth="1"/>
-    <col min="44" max="44" width="4.5" style="23" customWidth="1"/>
-    <col min="45" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="10.625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9" style="21"/>
+    <col min="3" max="3" width="5.125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="21" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="21" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="21"/>
+    <col min="12" max="12" width="10.625" style="21" customWidth="1"/>
+    <col min="13" max="13" width="9" style="21"/>
+    <col min="14" max="14" width="5.125" style="21" customWidth="1"/>
+    <col min="15" max="15" width="6.625" style="21" customWidth="1"/>
+    <col min="16" max="16" width="4.5" style="21" customWidth="1"/>
+    <col min="17" max="17" width="6.625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="4.5" style="21" customWidth="1"/>
+    <col min="19" max="19" width="6.625" style="21" customWidth="1"/>
+    <col min="20" max="21" width="4.5" style="21" customWidth="1"/>
+    <col min="22" max="23" width="9" style="21"/>
+    <col min="24" max="24" width="10.625" style="21" customWidth="1"/>
+    <col min="25" max="25" width="9" style="21"/>
+    <col min="26" max="26" width="8.25" style="21" customWidth="1"/>
+    <col min="27" max="27" width="11.125" style="21" customWidth="1"/>
+    <col min="28" max="28" width="10.375" style="21" customWidth="1"/>
+    <col min="29" max="29" width="6.625" style="21" customWidth="1"/>
+    <col min="30" max="30" width="10.375" style="21" customWidth="1"/>
+    <col min="31" max="33" width="6.625" style="21" customWidth="1"/>
+    <col min="34" max="35" width="9" style="21"/>
+    <col min="36" max="36" width="10.625" style="21" customWidth="1"/>
+    <col min="37" max="37" width="9" style="21"/>
+    <col min="38" max="38" width="5.125" style="21" customWidth="1"/>
+    <col min="39" max="39" width="6.625" style="21" customWidth="1"/>
+    <col min="40" max="40" width="4.5" style="21" customWidth="1"/>
+    <col min="41" max="41" width="6.625" style="21" customWidth="1"/>
+    <col min="42" max="42" width="4.5" style="21" customWidth="1"/>
+    <col min="43" max="43" width="6.625" style="21" customWidth="1"/>
+    <col min="44" max="44" width="4.5" style="21" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="3" customFormat="1">
-      <c r="E1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="E1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:44" s="10" customFormat="1">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="19" t="s">
+      <c r="A2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="L2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="19" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="L2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
       <c r="U2" s="13"/>
-      <c r="X2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="19" t="s">
+      <c r="X2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AJ2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="19" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AJ2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
     </row>
     <row r="3" spans="1:44" s="10" customFormat="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="19" t="s">
+      <c r="I3" s="56"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19" t="s">
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19" t="s">
+      <c r="R3" s="56"/>
+      <c r="S3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="19"/>
+      <c r="T3" s="56"/>
       <c r="U3" s="13"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19" t="s">
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19" t="s">
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19" t="s">
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="19" t="s">
+      <c r="AG3" s="56"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19" t="s">
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19" t="s">
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="19"/>
+      <c r="AR3" s="56"/>
     </row>
     <row r="4" spans="1:44" s="10" customFormat="1">
       <c r="A4" s="9" t="s">
@@ -841,19 +998,19 @@
       <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -893,7 +1050,7 @@
       <c r="Z4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="19"/>
+      <c r="AA4" s="56"/>
       <c r="AB4" s="9" t="s">
         <v>13</v>
       </c>
@@ -941,7 +1098,7 @@
       </c>
     </row>
     <row r="5" spans="1:44">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="57" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -950,13 +1107,13 @@
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="22"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="5"/>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="57" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -972,7 +1129,7 @@
       <c r="S5" s="11"/>
       <c r="T5" s="5"/>
       <c r="U5" s="14"/>
-      <c r="X5" s="20" t="s">
+      <c r="X5" s="57" t="s">
         <v>16</v>
       </c>
       <c r="Y5" s="8" t="s">
@@ -981,16 +1138,16 @@
       <c r="Z5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="24" t="s">
+      <c r="AA5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AJ5" s="20" t="s">
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AJ5" s="57" t="s">
         <v>16</v>
       </c>
       <c r="AK5" s="8" t="s">
@@ -1007,20 +1164,20 @@
       <c r="AR5" s="5"/>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" s="20"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="22"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="5"/>
-      <c r="L6" s="20"/>
+      <c r="L6" s="57"/>
       <c r="M6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1034,23 +1191,23 @@
       <c r="S6" s="11"/>
       <c r="T6" s="5"/>
       <c r="U6" s="14"/>
-      <c r="X6" s="20"/>
+      <c r="X6" s="57"/>
       <c r="Y6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="24" t="s">
+      <c r="AA6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AJ6" s="20"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AJ6" s="57"/>
       <c r="AK6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1065,20 +1222,20 @@
       <c r="AR6" s="5"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="20"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="22"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="5"/>
-      <c r="L7" s="20"/>
+      <c r="L7" s="57"/>
       <c r="M7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1092,23 +1249,23 @@
       <c r="S7" s="11"/>
       <c r="T7" s="5"/>
       <c r="U7" s="14"/>
-      <c r="X7" s="20"/>
+      <c r="X7" s="57"/>
       <c r="Y7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AA7" s="24" t="s">
+      <c r="AA7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AJ7" s="20"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AJ7" s="57"/>
       <c r="AK7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1123,22 +1280,22 @@
       <c r="AR7" s="5"/>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="26"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="26"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="6"/>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
       <c r="O8" s="12"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="12"/>
@@ -1146,43 +1303,43 @@
       <c r="S8" s="12"/>
       <c r="T8" s="6"/>
       <c r="U8" s="15"/>
-      <c r="X8" s="18" t="s">
+      <c r="X8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="27" t="s">
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AB8" s="28">
+      <c r="AB8" s="26">
         <f>SUM(AB5:AB7)</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="28">
+      <c r="AC8" s="26">
         <f>SUM(AC5:AC7)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="28">
+      <c r="AD8" s="26">
         <f t="shared" ref="AD8:AG8" si="0">SUM(AD5:AD7)</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="28">
+      <c r="AE8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="28">
+      <c r="AF8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="28">
+      <c r="AG8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ8" s="18" t="s">
+      <c r="AJ8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
       <c r="AM8" s="12"/>
       <c r="AN8" s="6"/>
       <c r="AO8" s="12"/>
@@ -1191,40 +1348,40 @@
       <c r="AR8" s="6"/>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="26">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="24">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="29">
         <f t="shared" ref="E9:I11" si="1">E5</f>
         <v>0</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
       <c r="O9" s="12">
         <f>O5</f>
         <v>0</v>
@@ -1250,43 +1407,43 @@
         <v>0</v>
       </c>
       <c r="U9" s="15"/>
-      <c r="X9" s="18" t="s">
+      <c r="X9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="27" t="s">
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="28">
+      <c r="AB9" s="26">
         <f>SUM(AB5)</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="28">
+      <c r="AC9" s="26">
         <f t="shared" ref="AC9:AG9" si="3">SUM(AC5)</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="28">
+      <c r="AD9" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="28">
+      <c r="AE9" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="28">
+      <c r="AF9" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="28">
+      <c r="AG9" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="18" t="s">
+      <c r="AJ9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
       <c r="AM9" s="12">
         <f>AM5</f>
         <v>0</v>
@@ -1313,40 +1470,40 @@
       </c>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="26">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="24">
         <f>D6</f>
         <v>0</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
       <c r="O10" s="12">
         <f>O6</f>
         <v>0</v>
@@ -1372,43 +1529,43 @@
         <v>0</v>
       </c>
       <c r="U10" s="15"/>
-      <c r="X10" s="18" t="s">
+      <c r="X10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="27" t="s">
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AB10" s="28">
+      <c r="AB10" s="26">
         <f t="shared" ref="AB10:AG11" si="6">SUM(AB6)</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="28">
+      <c r="AC10" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="28">
+      <c r="AD10" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="28">
+      <c r="AE10" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="28">
+      <c r="AF10" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="28">
+      <c r="AG10" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ10" s="18" t="s">
+      <c r="AJ10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="55"/>
       <c r="AM10" s="12">
         <f>AM6</f>
         <v>0</v>
@@ -1435,40 +1592,40 @@
       </c>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="26">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="24">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
       <c r="O11" s="12">
         <f>O7</f>
         <v>0</v>
@@ -1494,43 +1651,43 @@
         <v>0</v>
       </c>
       <c r="U11" s="15"/>
-      <c r="X11" s="18" t="s">
+      <c r="X11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="27" t="s">
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AB11" s="28">
+      <c r="AB11" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="28">
+      <c r="AC11" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="28">
+      <c r="AD11" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="28">
+      <c r="AE11" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="28">
+      <c r="AF11" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="28">
+      <c r="AG11" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ11" s="18" t="s">
+      <c r="AJ11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="55"/>
       <c r="AM11" s="12">
         <f>AM7</f>
         <v>0</v>
@@ -1558,6 +1715,39 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="X2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AJ9:AL9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="X10:Z10"/>
@@ -1566,39 +1756,6 @@
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="X11:Z11"/>
     <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="AJ2:AL3"/>
-    <mergeCell ref="AM2:AR2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="L2:N3"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="X2:Z3"/>
-    <mergeCell ref="AA2:AA4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1614,172 +1771,172 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="12.875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="7" style="35" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="44" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="44" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="35" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="44" customWidth="1"/>
-    <col min="10" max="11" width="9" style="35"/>
-    <col min="12" max="13" width="12.875" style="35" customWidth="1"/>
-    <col min="14" max="14" width="4.875" style="35" customWidth="1"/>
-    <col min="15" max="15" width="6" style="35" customWidth="1"/>
-    <col min="16" max="16" width="4.125" style="35" customWidth="1"/>
-    <col min="17" max="17" width="6" style="35" customWidth="1"/>
-    <col min="18" max="18" width="4.125" style="35" customWidth="1"/>
-    <col min="19" max="19" width="6" style="35" customWidth="1"/>
-    <col min="20" max="20" width="4.125" style="35" customWidth="1"/>
-    <col min="21" max="22" width="9" style="35"/>
-    <col min="23" max="24" width="12.875" style="35" customWidth="1"/>
-    <col min="25" max="25" width="4.875" style="35" customWidth="1"/>
-    <col min="26" max="26" width="5.625" style="35" customWidth="1"/>
-    <col min="27" max="27" width="6.5" style="35" customWidth="1"/>
-    <col min="28" max="28" width="5.875" style="35" customWidth="1"/>
-    <col min="29" max="29" width="4.25" style="35" customWidth="1"/>
-    <col min="30" max="30" width="5.875" style="35" customWidth="1"/>
-    <col min="31" max="31" width="4.25" style="35" customWidth="1"/>
-    <col min="32" max="32" width="5.875" style="35" customWidth="1"/>
-    <col min="33" max="33" width="4.25" style="35" customWidth="1"/>
-    <col min="34" max="35" width="9" style="35"/>
-    <col min="36" max="37" width="12.875" style="35" customWidth="1"/>
-    <col min="38" max="38" width="4.875" style="35" customWidth="1"/>
-    <col min="39" max="39" width="6" style="35" customWidth="1"/>
-    <col min="40" max="40" width="4.125" style="35" customWidth="1"/>
-    <col min="41" max="41" width="6" style="35" customWidth="1"/>
-    <col min="42" max="42" width="4.25" style="35" customWidth="1"/>
-    <col min="43" max="43" width="6" style="35" customWidth="1"/>
-    <col min="44" max="44" width="4.125" style="35" customWidth="1"/>
-    <col min="45" max="16384" width="9" style="35"/>
+    <col min="1" max="2" width="12.875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="7" style="33" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="42" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="42" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="5.25" style="42" customWidth="1"/>
+    <col min="10" max="11" width="9" style="33"/>
+    <col min="12" max="13" width="12.875" style="33" customWidth="1"/>
+    <col min="14" max="14" width="4.875" style="33" customWidth="1"/>
+    <col min="15" max="15" width="6" style="33" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="33" customWidth="1"/>
+    <col min="17" max="17" width="6" style="33" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="33" customWidth="1"/>
+    <col min="19" max="19" width="6" style="33" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="33" customWidth="1"/>
+    <col min="21" max="22" width="9" style="33"/>
+    <col min="23" max="24" width="12.875" style="33" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="33" customWidth="1"/>
+    <col min="26" max="26" width="5.625" style="33" customWidth="1"/>
+    <col min="27" max="27" width="6.5" style="33" customWidth="1"/>
+    <col min="28" max="28" width="5.875" style="33" customWidth="1"/>
+    <col min="29" max="29" width="4.25" style="33" customWidth="1"/>
+    <col min="30" max="30" width="5.875" style="33" customWidth="1"/>
+    <col min="31" max="31" width="4.25" style="33" customWidth="1"/>
+    <col min="32" max="32" width="5.875" style="33" customWidth="1"/>
+    <col min="33" max="33" width="4.25" style="33" customWidth="1"/>
+    <col min="34" max="35" width="9" style="33"/>
+    <col min="36" max="37" width="12.875" style="33" customWidth="1"/>
+    <col min="38" max="38" width="4.875" style="33" customWidth="1"/>
+    <col min="39" max="39" width="6" style="33" customWidth="1"/>
+    <col min="40" max="40" width="4.125" style="33" customWidth="1"/>
+    <col min="41" max="41" width="6" style="33" customWidth="1"/>
+    <col min="42" max="42" width="4.25" style="33" customWidth="1"/>
+    <col min="43" max="43" width="6" style="33" customWidth="1"/>
+    <col min="44" max="44" width="4.125" style="33" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1">
-      <c r="E1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="E1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="L2" s="17" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="L2" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="16" t="s">
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="W2" s="17" t="s">
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="W2" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="16" t="s">
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AJ2" s="17" t="s">
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AJ2" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="16" t="s">
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="16" t="s">
+      <c r="I3" s="59"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16" t="s">
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16" t="s">
+      <c r="R3" s="59"/>
+      <c r="S3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="16"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16" t="s">
+      <c r="T3" s="59"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16" t="s">
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16" t="s">
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="16"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="16" t="s">
+      <c r="AG3" s="59"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16" t="s">
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16" t="s">
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="16"/>
+      <c r="AR3" s="59"/>
     </row>
     <row r="4" spans="1:44" s="2" customFormat="1">
       <c r="A4" s="7" t="s">
@@ -1794,19 +1951,19 @@
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="41" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="41" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="41" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1848,7 +2005,7 @@
       <c r="Z4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" s="16"/>
+      <c r="AA4" s="59"/>
       <c r="AB4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1896,208 +2053,197 @@
       </c>
     </row>
     <row r="5" spans="1:44">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="37"/>
-      <c r="L5" s="36" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="35"/>
+      <c r="L5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="W5" s="33" t="s">
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="W5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="X5" s="33" t="s">
+      <c r="X5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="33" t="s">
+      <c r="Y5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="33" t="s">
+      <c r="AA5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AJ5" s="36" t="s">
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AJ5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="AK5" s="36" t="s">
+      <c r="AK5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="AL5" s="33" t="s">
+      <c r="AL5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="37"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="37">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="38">
         <f t="shared" ref="E6:I6" si="0">E5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="40">
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="38">
         <f>O5</f>
         <v>0</v>
       </c>
-      <c r="P6" s="40">
+      <c r="P6" s="38">
         <f t="shared" ref="P6:T6" si="1">P5</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="40">
+      <c r="Q6" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S6" s="40">
+      <c r="S6" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T6" s="40">
+      <c r="T6" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W6" s="38" t="s">
+      <c r="W6" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="41" t="s">
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="40">
+      <c r="AB6" s="38">
         <f>AB5</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="40">
+      <c r="AC6" s="38">
         <f t="shared" ref="AC6:AG6" si="2">AC5</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="40">
+      <c r="AD6" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="40">
+      <c r="AE6" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="40">
+      <c r="AF6" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="40">
+      <c r="AG6" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ6" s="38" t="s">
+      <c r="AJ6" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="40">
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
+      <c r="AM6" s="38">
         <f>AM5</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="40">
+      <c r="AN6" s="38">
         <f t="shared" ref="AN6:AR6" si="3">AN5</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="40">
+      <c r="AO6" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP6" s="40">
+      <c r="AP6" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AQ6" s="40">
+      <c r="AQ6" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AR6" s="40">
+      <c r="AR6" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="AJ2:AL3"/>
     <mergeCell ref="AM2:AR2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -2106,12 +2252,23 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="A2:C3"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:T2"/>
     <mergeCell ref="W2:Z3"/>
     <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2121,7 +2278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
@@ -2131,11 +2288,11 @@
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="53" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="53" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="53" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.875" customWidth="1"/>
     <col min="13" max="13" width="17.5" customWidth="1"/>
     <col min="14" max="14" width="5.25" customWidth="1"/>
@@ -2167,131 +2324,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="3" customFormat="1" ht="20.25">
-      <c r="E1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="E1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:44" s="10" customFormat="1" ht="20.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="L2" s="21" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="L2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="19" t="s">
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
       <c r="U2" s="13"/>
-      <c r="X2" s="21" t="s">
+      <c r="X2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="19" t="s">
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AJ2" s="21" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AJ2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="19" t="s">
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
     </row>
     <row r="3" spans="1:44" s="10" customFormat="1" ht="20.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="19" t="s">
+      <c r="I3" s="56"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19" t="s">
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19" t="s">
+      <c r="R3" s="56"/>
+      <c r="S3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="19"/>
+      <c r="T3" s="56"/>
       <c r="U3" s="13"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19" t="s">
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19" t="s">
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19" t="s">
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="19" t="s">
+      <c r="AG3" s="56"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19" t="s">
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19" t="s">
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="19"/>
+      <c r="AR3" s="56"/>
     </row>
     <row r="4" spans="1:44" s="10" customFormat="1" ht="20.25">
       <c r="A4" s="9" t="s">
@@ -2306,19 +2463,19 @@
       <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -2358,7 +2515,7 @@
       <c r="Z4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="19"/>
+      <c r="AA4" s="56"/>
       <c r="AB4" s="9" t="s">
         <v>13</v>
       </c>
@@ -2406,448 +2563,473 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="20.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="25"/>
-      <c r="L5" s="20" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="23"/>
+      <c r="L5" s="57" t="s">
         <v>28</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="N5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="56"/>
-      <c r="X5" s="47" t="s">
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="54"/>
+      <c r="X5" s="63" t="s">
         <v>28</v>
       </c>
       <c r="Y5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Z5" s="45" t="s">
+      <c r="Z5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="24" t="s">
+      <c r="AA5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AJ5" s="47" t="s">
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AJ5" s="63" t="s">
         <v>28</v>
       </c>
       <c r="AK5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AL5" s="45" t="s">
+      <c r="AL5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="23"/>
     </row>
     <row r="6" spans="1:44" ht="20.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="25"/>
-      <c r="L6" s="20"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="23"/>
+      <c r="L6" s="57"/>
       <c r="M6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="56"/>
-      <c r="X6" s="47"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="54"/>
+      <c r="X6" s="63"/>
       <c r="Y6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Z6" s="49" t="s">
+      <c r="Z6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="24" t="s">
+      <c r="AA6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AJ6" s="47"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AJ6" s="63"/>
       <c r="AK6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AL6" s="49" t="s">
+      <c r="AL6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="23"/>
+      <c r="AR6" s="23"/>
     </row>
     <row r="7" spans="1:44" ht="20.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="28"/>
-      <c r="L7" s="50" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="26"/>
+      <c r="L7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="56"/>
-      <c r="X7" s="50" t="s">
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="54"/>
+      <c r="X7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="27" t="s">
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="52">
+      <c r="AB7" s="50">
         <f t="shared" ref="AB7:AG7" si="0">SUM(AB5:AB6)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="52">
+      <c r="AC7" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="52">
+      <c r="AD7" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="52">
+      <c r="AE7" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="52">
+      <c r="AF7" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="52">
+      <c r="AG7" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ7" s="50" t="s">
+      <c r="AJ7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="62"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="26"/>
     </row>
     <row r="8" spans="1:44" ht="20.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="51">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="49">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="52">
         <f t="shared" ref="E8:I9" si="1">E5</f>
         <v>0</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="25">
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="23">
         <f>O5</f>
         <v>0</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="23">
         <f t="shared" ref="P8:T8" si="2">P5</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S8" s="25">
+      <c r="S8" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T8" s="25">
+      <c r="T8" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U8" s="56"/>
-      <c r="X8" s="18" t="s">
+      <c r="U8" s="54"/>
+      <c r="X8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="27" t="s">
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AB8" s="52">
+      <c r="AB8" s="50">
         <f t="shared" ref="AB8:AG9" si="3">AB5</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="52">
+      <c r="AC8" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="52">
+      <c r="AD8" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="52">
+      <c r="AE8" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="52">
+      <c r="AF8" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="52">
+      <c r="AG8" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ8" s="18" t="s">
+      <c r="AJ8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="28">
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="26">
         <f>AM5</f>
         <v>0</v>
       </c>
-      <c r="AN8" s="28">
+      <c r="AN8" s="26">
         <f t="shared" ref="AN8:AR8" si="4">AN5</f>
         <v>0</v>
       </c>
-      <c r="AO8" s="28">
+      <c r="AO8" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AP8" s="28">
+      <c r="AP8" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ8" s="28">
+      <c r="AQ8" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AR8" s="28">
+      <c r="AR8" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:44" ht="20.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="51">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="49">
         <f>D6</f>
         <v>0</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="25">
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="23">
         <f>O6</f>
         <v>0</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="23">
         <f t="shared" ref="P9:T9" si="5">P6</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R9" s="25">
+      <c r="R9" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S9" s="25">
+      <c r="S9" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T9" s="25">
+      <c r="T9" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9" s="56"/>
-      <c r="X9" s="18" t="s">
+      <c r="U9" s="54"/>
+      <c r="X9" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="27" t="s">
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="52">
+      <c r="AB9" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="52">
+      <c r="AC9" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="52">
+      <c r="AD9" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="52">
+      <c r="AE9" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="52">
+      <c r="AF9" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="52">
+      <c r="AG9" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="18" t="s">
+      <c r="AJ9" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="28">
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="26">
         <f>AM6</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="28">
+      <c r="AN9" s="26">
         <f t="shared" ref="AN9:AR9" si="6">AN6</f>
         <v>0</v>
       </c>
-      <c r="AO9" s="28">
+      <c r="AO9" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP9" s="28">
+      <c r="AP9" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AQ9" s="28">
+      <c r="AQ9" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AR9" s="28">
+      <c r="AR9" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:44">
-      <c r="Y11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
+      <c r="Y11" s="51"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="X2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="X9:Z9"/>
@@ -2860,15 +3042,1112 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="X8:Z8"/>
     <mergeCell ref="AJ8:AL8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR19"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="53" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="18.875" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="19" width="6.375" customWidth="1"/>
+    <col min="20" max="20" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.125" customWidth="1"/>
+    <col min="25" max="25" width="29.625" customWidth="1"/>
+    <col min="26" max="26" width="5" customWidth="1"/>
+    <col min="27" max="27" width="6.75" customWidth="1"/>
+    <col min="28" max="28" width="10.125" customWidth="1"/>
+    <col min="29" max="29" width="6.375" customWidth="1"/>
+    <col min="30" max="30" width="10.125" customWidth="1"/>
+    <col min="31" max="33" width="6.375" customWidth="1"/>
+    <col min="36" max="36" width="15.125" customWidth="1"/>
+    <col min="37" max="37" width="18.875" customWidth="1"/>
+    <col min="38" max="38" width="5" customWidth="1"/>
+    <col min="39" max="41" width="6.375" customWidth="1"/>
+    <col min="42" max="42" width="4.25" customWidth="1"/>
+    <col min="43" max="43" width="6.375" customWidth="1"/>
+    <col min="44" max="44" width="4.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="3" customFormat="1" ht="20.25">
+      <c r="E1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="L2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="X2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AJ2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+    </row>
+    <row r="3" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="56"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="56"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="56"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="56"/>
+    </row>
+    <row r="4" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="20.25">
+      <c r="A5" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="23"/>
+      <c r="L5" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="X5" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AJ5" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="23"/>
+    </row>
+    <row r="6" spans="1:44" ht="20.25">
+      <c r="A6" s="63"/>
+      <c r="B6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="23"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="23"/>
+      <c r="AR6" s="23"/>
+    </row>
+    <row r="7" spans="1:44" ht="20.25">
+      <c r="A7" s="63"/>
+      <c r="B7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="23"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="23"/>
+    </row>
+    <row r="8" spans="1:44" ht="20.25">
+      <c r="A8" s="63"/>
+      <c r="B8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="23"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM8" s="23"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="23"/>
+    </row>
+    <row r="9" spans="1:44" ht="20.25">
+      <c r="A9" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="26"/>
+      <c r="L9" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="X9" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB9" s="26">
+        <f t="shared" ref="AB9:AG9" si="0">SUM(AB5:AB8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="62"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="23"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="23"/>
+    </row>
+    <row r="10" spans="1:44" ht="20.25">
+      <c r="A10" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="49">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="52">
+        <f t="shared" ref="E10:I10" si="1">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="26">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="26">
+        <f t="shared" ref="P10:T10" si="2">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB10" s="26">
+        <f t="shared" ref="AB10:AG13" si="3">AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="26">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="23">
+        <f t="shared" ref="AN10:AR10" si="4">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" ht="20.25">
+      <c r="A11" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="49">
+        <f t="shared" ref="D11:I11" si="5">D6</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="26">
+        <f t="shared" ref="O11:T11" si="6">O6</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB11" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="26">
+        <f t="shared" ref="AM11:AR11" si="7">AM6</f>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR11" s="23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" ht="20.25">
+      <c r="A12" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="49">
+        <f t="shared" ref="D12:I12" si="8">D7</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="26">
+        <f t="shared" ref="O12:T12" si="9">O7</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB12" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="26">
+        <f t="shared" ref="AM12:AR12" si="10">AM7</f>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" ht="20.25">
+      <c r="A13" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="49">
+        <f t="shared" ref="D13:I13" si="11">D8</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="26">
+        <f t="shared" ref="O13:T13" si="12">O8</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB13" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="26">
+        <f t="shared" ref="AM13:AR13" si="13">AM8</f>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AR13" s="23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="19:19">
+      <c r="S18" s="70"/>
+    </row>
+    <row r="19" spans="19:19">
+      <c r="S19" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AJ10:AL10"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="AO3:AP3"/>
     <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="X5:X8"/>
+    <mergeCell ref="AJ5:AJ8"/>
     <mergeCell ref="AB2:AG2"/>
     <mergeCell ref="AJ2:AL3"/>
     <mergeCell ref="AM2:AR2"/>
@@ -2888,4 +4167,2175 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR7"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="53" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="53" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="10.125" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="17" width="6.375" customWidth="1"/>
+    <col min="18" max="18" width="4.25" customWidth="1"/>
+    <col min="19" max="19" width="6.375" customWidth="1"/>
+    <col min="20" max="21" width="4.25" customWidth="1"/>
+    <col min="24" max="24" width="15.125" customWidth="1"/>
+    <col min="25" max="25" width="10.125" customWidth="1"/>
+    <col min="26" max="26" width="5" customWidth="1"/>
+    <col min="27" max="27" width="6.75" customWidth="1"/>
+    <col min="28" max="28" width="10.125" customWidth="1"/>
+    <col min="29" max="29" width="6.375" customWidth="1"/>
+    <col min="30" max="30" width="10.125" customWidth="1"/>
+    <col min="31" max="31" width="6.375" customWidth="1"/>
+    <col min="32" max="32" width="7.375" customWidth="1"/>
+    <col min="33" max="33" width="6.375" customWidth="1"/>
+    <col min="36" max="36" width="15.125" customWidth="1"/>
+    <col min="37" max="37" width="10.125" customWidth="1"/>
+    <col min="38" max="38" width="5" customWidth="1"/>
+    <col min="39" max="39" width="6.375" customWidth="1"/>
+    <col min="40" max="40" width="4.25" customWidth="1"/>
+    <col min="41" max="41" width="6.375" customWidth="1"/>
+    <col min="42" max="42" width="4.25" customWidth="1"/>
+    <col min="43" max="43" width="6.375" customWidth="1"/>
+    <col min="44" max="44" width="4.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="3" customFormat="1" ht="20.25">
+      <c r="E1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="L2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="13"/>
+      <c r="X2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AJ2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+    </row>
+    <row r="3" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="56"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="56"/>
+      <c r="U3" s="13"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="56"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="56"/>
+    </row>
+    <row r="4" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="13"/>
+      <c r="X4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="20.25">
+      <c r="A5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="23"/>
+      <c r="L5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="54"/>
+      <c r="X5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AJ5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="23"/>
+    </row>
+    <row r="6" spans="1:44" ht="20.25">
+      <c r="A6" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="49">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="52">
+        <f t="shared" ref="E6:I6" si="0">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="23">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="23">
+        <f t="shared" ref="P6" si="1">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="23">
+        <f t="shared" ref="Q6" si="2">Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="23">
+        <f t="shared" ref="R6" si="3">R5</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="23">
+        <f t="shared" ref="S6" si="4">S5</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="23">
+        <f t="shared" ref="T6" si="5">T5</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="54"/>
+      <c r="X6" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="26">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="26">
+        <f t="shared" ref="AC6:AG6" si="6">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="62"/>
+      <c r="AM6" s="23">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="23">
+        <f t="shared" ref="AN6" si="7">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="23">
+        <f t="shared" ref="AO6" si="8">AO5</f>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="23">
+        <f t="shared" ref="AP6" si="9">AP5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="23">
+        <f t="shared" ref="AQ6" si="10">AQ5</f>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="23">
+        <f t="shared" ref="AR6" si="11">AR5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" ht="20.25">
+      <c r="A7" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="49">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="52">
+        <f t="shared" ref="E7:I7" si="12">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="52">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="52">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="23">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="23">
+        <f t="shared" ref="P7:T7" si="13">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="54"/>
+      <c r="X7" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB7" s="26">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="26">
+        <f t="shared" ref="AC7:AG7" si="14">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="55"/>
+      <c r="AM7" s="23">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="23">
+        <f t="shared" ref="AN7:AR7" si="15">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="23">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="23">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="23">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="23">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="X2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR9"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG17" sqref="AG17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="75" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="75" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="75" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="75" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="83" customWidth="1"/>
+    <col min="6" max="6" width="7" style="75" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="83" customWidth="1"/>
+    <col min="8" max="8" width="7" style="75" customWidth="1"/>
+    <col min="9" max="9" width="5.125" style="83" customWidth="1"/>
+    <col min="10" max="11" width="9" style="75"/>
+    <col min="12" max="12" width="13.25" style="75" customWidth="1"/>
+    <col min="13" max="13" width="15.375" style="75" customWidth="1"/>
+    <col min="14" max="14" width="4.625" style="75" customWidth="1"/>
+    <col min="15" max="15" width="6" style="75" customWidth="1"/>
+    <col min="16" max="16" width="3.875" style="75" customWidth="1"/>
+    <col min="17" max="17" width="6" style="75" customWidth="1"/>
+    <col min="18" max="18" width="3.875" style="75" customWidth="1"/>
+    <col min="19" max="19" width="6" style="75" customWidth="1"/>
+    <col min="20" max="20" width="3.875" style="75" customWidth="1"/>
+    <col min="21" max="22" width="9" style="75"/>
+    <col min="23" max="23" width="13.25" style="75" customWidth="1"/>
+    <col min="24" max="24" width="15.375" style="75" customWidth="1"/>
+    <col min="25" max="26" width="4.625" style="75" customWidth="1"/>
+    <col min="27" max="27" width="6.375" style="75" customWidth="1"/>
+    <col min="28" max="28" width="5.75" style="75" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="75" customWidth="1"/>
+    <col min="30" max="30" width="5.75" style="75" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="75" customWidth="1"/>
+    <col min="32" max="32" width="5.75" style="75" customWidth="1"/>
+    <col min="33" max="33" width="4.75" style="75" customWidth="1"/>
+    <col min="34" max="35" width="9" style="75"/>
+    <col min="36" max="36" width="13.25" style="75" customWidth="1"/>
+    <col min="37" max="37" width="15.375" style="75" customWidth="1"/>
+    <col min="38" max="38" width="4.625" style="75" customWidth="1"/>
+    <col min="39" max="39" width="6" style="75" customWidth="1"/>
+    <col min="40" max="40" width="3.875" style="75" customWidth="1"/>
+    <col min="41" max="41" width="6" style="75" customWidth="1"/>
+    <col min="42" max="42" width="3.875" style="75" customWidth="1"/>
+    <col min="43" max="43" width="6" style="75" customWidth="1"/>
+    <col min="44" max="44" width="3.875" style="75" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="1" customFormat="1" ht="18">
+      <c r="E1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="1:44" s="2" customFormat="1" ht="18">
+      <c r="A2" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="84"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="84"/>
+      <c r="L2" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="W2" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AJ2" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+    </row>
+    <row r="3" spans="1:44" s="2" customFormat="1" ht="18">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="84"/>
+      <c r="F3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="84"/>
+      <c r="H3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="84"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="59"/>
+    </row>
+    <row r="4" spans="1:44" s="2" customFormat="1" ht="18">
+      <c r="A4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="74"/>
+      <c r="L5" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="74"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="76"/>
+      <c r="W5" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AJ5" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK5" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL5" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="76"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="76"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="76"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="74"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="74"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="76"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL6" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="74"/>
+      <c r="AP6" s="76"/>
+      <c r="AQ6" s="74"/>
+      <c r="AR6" s="76"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="83"/>
+      <c r="L7" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="79"/>
+      <c r="W7" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB7" s="80">
+        <f>SUM(AB5:AB6)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="80">
+        <f>SUM(AC5:AC6)</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="80">
+        <f t="shared" ref="AD7:AG7" si="0">SUM(AD5:AD6)</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="76"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="76"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="76"/>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="78">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="85">
+        <f t="shared" ref="E8:I9" si="1">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="74">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="76">
+        <f t="shared" ref="P8:T8" si="2">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB8" s="80">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="80">
+        <f t="shared" ref="AC8:AG9" si="3">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK8" s="81"/>
+      <c r="AL8" s="81"/>
+      <c r="AM8" s="74">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="76">
+        <f t="shared" ref="AN8:AR8" si="4">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR8" s="76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="78">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="74">
+        <f>O6</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="76">
+        <f t="shared" ref="P9:T9" si="5">P6</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB9" s="80">
+        <f>AB6</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK9" s="81"/>
+      <c r="AL9" s="81"/>
+      <c r="AM9" s="74">
+        <f>AM6</f>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="76">
+        <f t="shared" ref="AN9:AR9" si="6">AN6</f>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="W2:Y3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="53" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="53" customWidth="1"/>
+    <col min="12" max="12" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="6.375" customWidth="1"/>
+    <col min="16" max="16" width="4.25" customWidth="1"/>
+    <col min="17" max="17" width="6.375" customWidth="1"/>
+    <col min="18" max="18" width="4.25" customWidth="1"/>
+    <col min="19" max="19" width="6.375" customWidth="1"/>
+    <col min="20" max="20" width="4.25" customWidth="1"/>
+    <col min="23" max="23" width="8.125" customWidth="1"/>
+    <col min="24" max="24" width="17.125" customWidth="1"/>
+    <col min="25" max="26" width="5" customWidth="1"/>
+    <col min="27" max="27" width="5.125" customWidth="1"/>
+    <col min="28" max="28" width="6.375" customWidth="1"/>
+    <col min="29" max="29" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="6.375" customWidth="1"/>
+    <col min="31" max="31" width="4.5" customWidth="1"/>
+    <col min="32" max="32" width="6.375" customWidth="1"/>
+    <col min="33" max="33" width="4.5" customWidth="1"/>
+    <col min="36" max="36" width="8.125" customWidth="1"/>
+    <col min="37" max="37" width="17.125" customWidth="1"/>
+    <col min="38" max="38" width="5" customWidth="1"/>
+    <col min="39" max="39" width="6.375" customWidth="1"/>
+    <col min="40" max="40" width="4.25" customWidth="1"/>
+    <col min="41" max="41" width="6.375" customWidth="1"/>
+    <col min="42" max="42" width="4.25" customWidth="1"/>
+    <col min="43" max="43" width="6.375" customWidth="1"/>
+    <col min="44" max="44" width="4.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="3" customFormat="1" ht="20.25">
+      <c r="E1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A2" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="L2" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="W2" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AJ2" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+    </row>
+    <row r="3" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="56"/>
+    </row>
+    <row r="4" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="20.25">
+      <c r="A5" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="23"/>
+      <c r="L5" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="W5" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AJ5" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK5" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="86"/>
+    </row>
+    <row r="6" spans="1:44" ht="20.25">
+      <c r="A6" s="63"/>
+      <c r="B6" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="23"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="86"/>
+      <c r="AQ6" s="23"/>
+      <c r="AR6" s="86"/>
+    </row>
+    <row r="7" spans="1:44" ht="20.25">
+      <c r="A7" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="26"/>
+      <c r="L7" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="W7" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="46">
+        <f>SUM(AB5:AB6)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="46">
+        <f>SUM(AC5:AC6)</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="46">
+        <f t="shared" ref="AD7:AG7" si="0">SUM(AD5:AD6)</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="62"/>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="86"/>
+    </row>
+    <row r="8" spans="1:44" ht="20.25">
+      <c r="A8" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="49">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="52">
+        <f t="shared" ref="E8:I9" si="1">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="23">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="23">
+        <f t="shared" ref="P8:T8" si="2">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB8" s="46">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="46">
+        <f t="shared" ref="AC8:AG9" si="3">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="23">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="23">
+        <f t="shared" ref="AN8:AR8" si="4">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR8" s="86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" ht="20.25">
+      <c r="A9" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="49">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="23">
+        <f>O6</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="23">
+        <f t="shared" ref="P9:T9" si="5">P6</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB9" s="46">
+        <f>AB6</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="23">
+        <f>AM6</f>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="23">
+        <f t="shared" ref="AN9:AR9" si="6">AN6</f>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="W2:Y3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/storage/excel/summary9_by_tool_fuel.xlsx
+++ b/storage/excel/summary9_by_tool_fuel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="46" r:id="rId1"/>
@@ -14,6 +14,10 @@
     <sheet name="5" sheetId="50" r:id="rId5"/>
     <sheet name="6" sheetId="51" r:id="rId6"/>
     <sheet name="7" sheetId="52" r:id="rId7"/>
+    <sheet name="8" sheetId="53" r:id="rId8"/>
+    <sheet name="9" sheetId="54" r:id="rId9"/>
+    <sheet name="10" sheetId="55" r:id="rId10"/>
+    <sheet name="11" sheetId="56" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="49">
   <si>
     <t>อุปกรณ์ในหมวดประกอบอาหาร</t>
   </si>
@@ -161,15 +165,28 @@
   <si>
     <t>ลิตร</t>
   </si>
+  <si>
+    <t>เครื่องตัดหญ้าสะพายบ่า</t>
+  </si>
+  <si>
+    <t>ควายเหล็ก</t>
+  </si>
+  <si>
+    <t>รถอีแต๋น</t>
+  </si>
+  <si>
+    <t>รถแทรกเตอร์</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="187" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="188" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="189" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -319,7 +336,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -369,6 +386,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -527,6 +547,54 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="189" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -817,173 +885,173 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9" style="21"/>
-    <col min="3" max="3" width="5.125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="21" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="30" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="21" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" style="21"/>
-    <col min="12" max="12" width="10.625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="9" style="21"/>
-    <col min="14" max="14" width="5.125" style="21" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="21" customWidth="1"/>
-    <col min="16" max="16" width="4.5" style="21" customWidth="1"/>
-    <col min="17" max="17" width="6.625" style="21" customWidth="1"/>
-    <col min="18" max="18" width="4.5" style="21" customWidth="1"/>
-    <col min="19" max="19" width="6.625" style="21" customWidth="1"/>
-    <col min="20" max="21" width="4.5" style="21" customWidth="1"/>
-    <col min="22" max="23" width="9" style="21"/>
-    <col min="24" max="24" width="10.625" style="21" customWidth="1"/>
-    <col min="25" max="25" width="9" style="21"/>
-    <col min="26" max="26" width="8.25" style="21" customWidth="1"/>
-    <col min="27" max="27" width="11.125" style="21" customWidth="1"/>
-    <col min="28" max="28" width="10.375" style="21" customWidth="1"/>
-    <col min="29" max="29" width="6.625" style="21" customWidth="1"/>
-    <col min="30" max="30" width="10.375" style="21" customWidth="1"/>
-    <col min="31" max="33" width="6.625" style="21" customWidth="1"/>
-    <col min="34" max="35" width="9" style="21"/>
-    <col min="36" max="36" width="10.625" style="21" customWidth="1"/>
-    <col min="37" max="37" width="9" style="21"/>
-    <col min="38" max="38" width="5.125" style="21" customWidth="1"/>
-    <col min="39" max="39" width="6.625" style="21" customWidth="1"/>
-    <col min="40" max="40" width="4.5" style="21" customWidth="1"/>
-    <col min="41" max="41" width="6.625" style="21" customWidth="1"/>
-    <col min="42" max="42" width="4.5" style="21" customWidth="1"/>
-    <col min="43" max="43" width="6.625" style="21" customWidth="1"/>
-    <col min="44" max="44" width="4.5" style="21" customWidth="1"/>
-    <col min="45" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="10.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9" style="22"/>
+    <col min="3" max="3" width="5.125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="22" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="22" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="22"/>
+    <col min="12" max="12" width="10.625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="9" style="22"/>
+    <col min="14" max="14" width="5.125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="6.625" style="22" customWidth="1"/>
+    <col min="16" max="16" width="4.5" style="22" customWidth="1"/>
+    <col min="17" max="17" width="6.625" style="22" customWidth="1"/>
+    <col min="18" max="18" width="4.5" style="22" customWidth="1"/>
+    <col min="19" max="19" width="6.625" style="22" customWidth="1"/>
+    <col min="20" max="21" width="4.5" style="22" customWidth="1"/>
+    <col min="22" max="23" width="9" style="22"/>
+    <col min="24" max="24" width="10.625" style="22" customWidth="1"/>
+    <col min="25" max="25" width="9" style="22"/>
+    <col min="26" max="26" width="8.25" style="22" customWidth="1"/>
+    <col min="27" max="27" width="11.125" style="22" customWidth="1"/>
+    <col min="28" max="28" width="10.375" style="22" customWidth="1"/>
+    <col min="29" max="29" width="6.625" style="22" customWidth="1"/>
+    <col min="30" max="30" width="10.375" style="22" customWidth="1"/>
+    <col min="31" max="33" width="6.625" style="22" customWidth="1"/>
+    <col min="34" max="35" width="9" style="22"/>
+    <col min="36" max="36" width="10.625" style="22" customWidth="1"/>
+    <col min="37" max="37" width="9" style="22"/>
+    <col min="38" max="38" width="5.125" style="22" customWidth="1"/>
+    <col min="39" max="39" width="6.625" style="22" customWidth="1"/>
+    <col min="40" max="40" width="4.5" style="22" customWidth="1"/>
+    <col min="41" max="41" width="6.625" style="22" customWidth="1"/>
+    <col min="42" max="42" width="4.5" style="22" customWidth="1"/>
+    <col min="43" max="43" width="6.625" style="22" customWidth="1"/>
+    <col min="44" max="44" width="4.5" style="22" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="3" customFormat="1">
-      <c r="E1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:44" s="10" customFormat="1">
-      <c r="A2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="56" t="s">
+      <c r="A2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="L2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="56" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="L2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
       <c r="U2" s="13"/>
-      <c r="X2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="56" t="s">
+      <c r="X2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="56" t="s">
+      <c r="AB2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AJ2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="56" t="s">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AJ2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
     </row>
     <row r="3" spans="1:44" s="10" customFormat="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="56" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="56" t="s">
+      <c r="I3" s="57"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56" t="s">
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56" t="s">
+      <c r="R3" s="57"/>
+      <c r="S3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="56"/>
+      <c r="T3" s="57"/>
       <c r="U3" s="13"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56" t="s">
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56" t="s">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56" t="s">
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="56"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="56" t="s">
+      <c r="AG3" s="57"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56" t="s">
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="56"/>
+      <c r="AR3" s="57"/>
     </row>
     <row r="4" spans="1:44" s="10" customFormat="1">
       <c r="A4" s="9" t="s">
@@ -998,19 +1066,19 @@
       <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -1050,7 +1118,7 @@
       <c r="Z4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="56"/>
+      <c r="AA4" s="57"/>
       <c r="AB4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1098,7 +1166,7 @@
       </c>
     </row>
     <row r="5" spans="1:44">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1107,13 +1175,13 @@
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="20"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="20"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="5"/>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="58" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -1129,7 +1197,7 @@
       <c r="S5" s="11"/>
       <c r="T5" s="5"/>
       <c r="U5" s="14"/>
-      <c r="X5" s="57" t="s">
+      <c r="X5" s="58" t="s">
         <v>16</v>
       </c>
       <c r="Y5" s="8" t="s">
@@ -1138,16 +1206,16 @@
       <c r="Z5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AA5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AJ5" s="57" t="s">
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AJ5" s="58" t="s">
         <v>16</v>
       </c>
       <c r="AK5" s="8" t="s">
@@ -1164,20 +1232,20 @@
       <c r="AR5" s="5"/>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="20"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="5"/>
-      <c r="L6" s="57"/>
+      <c r="L6" s="58"/>
       <c r="M6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1191,23 +1259,23 @@
       <c r="S6" s="11"/>
       <c r="T6" s="5"/>
       <c r="U6" s="14"/>
-      <c r="X6" s="57"/>
+      <c r="X6" s="58"/>
       <c r="Y6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="22" t="s">
+      <c r="AA6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AJ6" s="57"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AJ6" s="58"/>
       <c r="AK6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1222,20 +1290,20 @@
       <c r="AR6" s="5"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="20"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="5"/>
-      <c r="L7" s="57"/>
+      <c r="L7" s="58"/>
       <c r="M7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1249,23 +1317,23 @@
       <c r="S7" s="11"/>
       <c r="T7" s="5"/>
       <c r="U7" s="14"/>
-      <c r="X7" s="57"/>
+      <c r="X7" s="58"/>
       <c r="Y7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AA7" s="22" t="s">
+      <c r="AA7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AJ7" s="57"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AJ7" s="58"/>
       <c r="AK7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1280,22 +1348,22 @@
       <c r="AR7" s="5"/>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="24"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="24"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="6"/>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
       <c r="O8" s="12"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="12"/>
@@ -1303,43 +1371,43 @@
       <c r="S8" s="12"/>
       <c r="T8" s="6"/>
       <c r="U8" s="15"/>
-      <c r="X8" s="55" t="s">
+      <c r="X8" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="25" t="s">
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AB8" s="26">
+      <c r="AB8" s="27">
         <f>SUM(AB5:AB7)</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="26">
+      <c r="AC8" s="27">
         <f>SUM(AC5:AC7)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="26">
+      <c r="AD8" s="27">
         <f t="shared" ref="AD8:AG8" si="0">SUM(AD5:AD7)</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="26">
+      <c r="AE8" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="26">
+      <c r="AF8" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="26">
+      <c r="AG8" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ8" s="55" t="s">
+      <c r="AJ8" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
       <c r="AM8" s="12"/>
       <c r="AN8" s="6"/>
       <c r="AO8" s="12"/>
@@ -1348,40 +1416,40 @@
       <c r="AR8" s="6"/>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="24">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="25">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="30">
         <f t="shared" ref="E9:I11" si="1">E5</f>
         <v>0</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
       <c r="O9" s="12">
         <f>O5</f>
         <v>0</v>
@@ -1407,43 +1475,43 @@
         <v>0</v>
       </c>
       <c r="U9" s="15"/>
-      <c r="X9" s="55" t="s">
+      <c r="X9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="25" t="s">
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="26">
+      <c r="AB9" s="27">
         <f>SUM(AB5)</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="26">
+      <c r="AC9" s="27">
         <f t="shared" ref="AC9:AG9" si="3">SUM(AC5)</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="26">
+      <c r="AD9" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="26">
+      <c r="AE9" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="26">
+      <c r="AF9" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="26">
+      <c r="AG9" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="55" t="s">
+      <c r="AJ9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
       <c r="AM9" s="12">
         <f>AM5</f>
         <v>0</v>
@@ -1470,40 +1538,40 @@
       </c>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="24">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="25">
         <f>D6</f>
         <v>0</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="55" t="s">
+      <c r="L10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
       <c r="O10" s="12">
         <f>O6</f>
         <v>0</v>
@@ -1529,43 +1597,43 @@
         <v>0</v>
       </c>
       <c r="U10" s="15"/>
-      <c r="X10" s="55" t="s">
+      <c r="X10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="25" t="s">
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AB10" s="26">
+      <c r="AB10" s="27">
         <f t="shared" ref="AB10:AG11" si="6">SUM(AB6)</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="26">
+      <c r="AC10" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="26">
+      <c r="AD10" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="26">
+      <c r="AE10" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="26">
+      <c r="AF10" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="26">
+      <c r="AG10" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ10" s="55" t="s">
+      <c r="AJ10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
       <c r="AM10" s="12">
         <f>AM6</f>
         <v>0</v>
@@ -1592,40 +1660,40 @@
       </c>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="24">
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="25">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
       <c r="O11" s="12">
         <f>O7</f>
         <v>0</v>
@@ -1651,43 +1719,43 @@
         <v>0</v>
       </c>
       <c r="U11" s="15"/>
-      <c r="X11" s="55" t="s">
+      <c r="X11" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="25" t="s">
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AB11" s="26">
+      <c r="AB11" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="26">
+      <c r="AC11" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="26">
+      <c r="AD11" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="26">
+      <c r="AE11" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="26">
+      <c r="AF11" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="26">
+      <c r="AG11" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ11" s="55" t="s">
+      <c r="AJ11" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="55"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
       <c r="AM11" s="12">
         <f>AM7</f>
         <v>0</v>
@@ -1761,6 +1829,1258 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR7"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="5.875" style="54" customWidth="1"/>
+    <col min="8" max="8" width="7.875" customWidth="1"/>
+    <col min="9" max="9" width="5.875" style="54" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="14" max="14" width="5.125" customWidth="1"/>
+    <col min="15" max="15" width="6.625" customWidth="1"/>
+    <col min="16" max="16" width="3.875" customWidth="1"/>
+    <col min="17" max="17" width="6.625" customWidth="1"/>
+    <col min="18" max="18" width="3.875" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="20" width="3.875" customWidth="1"/>
+    <col min="24" max="24" width="8.625" customWidth="1"/>
+    <col min="25" max="25" width="10.625" customWidth="1"/>
+    <col min="26" max="26" width="5.125" customWidth="1"/>
+    <col min="27" max="27" width="5.375" customWidth="1"/>
+    <col min="28" max="29" width="6.625" customWidth="1"/>
+    <col min="30" max="33" width="7.625" customWidth="1"/>
+    <col min="36" max="36" width="8.625" customWidth="1"/>
+    <col min="37" max="37" width="10.625" customWidth="1"/>
+    <col min="38" max="38" width="5.125" customWidth="1"/>
+    <col min="39" max="39" width="6.625" customWidth="1"/>
+    <col min="40" max="40" width="3.875" customWidth="1"/>
+    <col min="41" max="41" width="6.625" customWidth="1"/>
+    <col min="42" max="42" width="3.875" customWidth="1"/>
+    <col min="43" max="43" width="6.625" customWidth="1"/>
+    <col min="44" max="44" width="3.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="3" customFormat="1" ht="20.25">
+      <c r="E1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A2" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="L2" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="X2" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AJ2" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+    </row>
+    <row r="3" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="57"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="57"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="57"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="57"/>
+    </row>
+    <row r="4" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="20.25">
+      <c r="A5" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="93"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="90"/>
+      <c r="L5" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="X5" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AJ5" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="95"/>
+      <c r="AO5" s="95"/>
+      <c r="AP5" s="95"/>
+      <c r="AQ5" s="95"/>
+      <c r="AR5" s="95"/>
+    </row>
+    <row r="6" spans="1:44" ht="20.25">
+      <c r="A6" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="93">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="96">
+        <f t="shared" ref="E6:H6" si="0">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="96">
+        <f>I5</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="66"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="95">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="95">
+        <f t="shared" ref="P6" si="1">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="95">
+        <f t="shared" ref="Q6" si="2">Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="95">
+        <f t="shared" ref="R6" si="3">R5</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="95">
+        <f t="shared" ref="S6" si="4">S5</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="95">
+        <f>T5</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB6" s="24">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="24">
+        <f t="shared" ref="AC6:AG6" si="5">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="67"/>
+      <c r="AM6" s="95">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="95">
+        <f t="shared" ref="AN6" si="6">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="95">
+        <f t="shared" ref="AO6" si="7">AO5</f>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="95">
+        <f t="shared" ref="AP6" si="8">AP5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="95">
+        <f t="shared" ref="AQ6" si="9">AQ5</f>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="95">
+        <f>AR5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" ht="20.25">
+      <c r="A7" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="93">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="96">
+        <f t="shared" ref="E7:I7" si="10">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="93">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="93">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="69"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="95">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="95">
+        <f t="shared" ref="P7:T7" si="11">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB7" s="24">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="24">
+        <f t="shared" ref="AC7:AG7" si="12">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="95">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="95">
+        <f t="shared" ref="AN7:AR7" si="13">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="95">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="95">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="95">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="95">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="X2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="9" style="34" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="34" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9" style="34"/>
+    <col min="5" max="5" width="5.125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="10" style="34" customWidth="1"/>
+    <col min="9" max="9" width="5.125" style="43" customWidth="1"/>
+    <col min="10" max="12" width="9" style="34"/>
+    <col min="13" max="13" width="9.25" style="34" customWidth="1"/>
+    <col min="14" max="14" width="4.625" style="34" customWidth="1"/>
+    <col min="15" max="15" width="6.125" style="34" customWidth="1"/>
+    <col min="16" max="16" width="4.75" style="34" customWidth="1"/>
+    <col min="17" max="17" width="6.125" style="34" customWidth="1"/>
+    <col min="18" max="18" width="4.75" style="34" customWidth="1"/>
+    <col min="19" max="19" width="6.125" style="34" customWidth="1"/>
+    <col min="20" max="20" width="4.75" style="34" customWidth="1"/>
+    <col min="21" max="24" width="9" style="34"/>
+    <col min="25" max="25" width="9.25" style="34" customWidth="1"/>
+    <col min="26" max="26" width="4.625" style="34" customWidth="1"/>
+    <col min="27" max="27" width="6.375" style="34" customWidth="1"/>
+    <col min="28" max="28" width="6.875" style="34" customWidth="1"/>
+    <col min="29" max="29" width="7" style="34" customWidth="1"/>
+    <col min="30" max="30" width="8.375" style="34" customWidth="1"/>
+    <col min="31" max="32" width="8.125" style="34" customWidth="1"/>
+    <col min="33" max="33" width="8.25" style="34" customWidth="1"/>
+    <col min="34" max="36" width="9" style="34"/>
+    <col min="37" max="37" width="9.25" style="34" customWidth="1"/>
+    <col min="38" max="38" width="4.625" style="34" customWidth="1"/>
+    <col min="39" max="39" width="6.125" style="34" customWidth="1"/>
+    <col min="40" max="40" width="4.75" style="34" customWidth="1"/>
+    <col min="41" max="41" width="6.125" style="34" customWidth="1"/>
+    <col min="42" max="42" width="4.75" style="34" customWidth="1"/>
+    <col min="43" max="43" width="6.125" style="34" customWidth="1"/>
+    <col min="44" max="44" width="4.75" style="34" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="1" customFormat="1">
+      <c r="E1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="1:44" s="2" customFormat="1">
+      <c r="A2" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="L2" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="X2" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AJ2" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+    </row>
+    <row r="3" spans="1:44" s="2" customFormat="1">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="60"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="60"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="60"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="60"/>
+    </row>
+    <row r="4" spans="1:44" s="2" customFormat="1">
+      <c r="A4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="98"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="75"/>
+      <c r="L5" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="X5" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="99"/>
+      <c r="AD5" s="99"/>
+      <c r="AE5" s="99"/>
+      <c r="AF5" s="99"/>
+      <c r="AG5" s="99"/>
+      <c r="AJ5" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK5" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="75"/>
+      <c r="AN5" s="75"/>
+      <c r="AO5" s="75"/>
+      <c r="AP5" s="75"/>
+      <c r="AQ5" s="75"/>
+      <c r="AR5" s="75"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="100">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="86">
+        <f t="shared" ref="E6:I6" si="0">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="100">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="100">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="39">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="39">
+        <f t="shared" ref="P6" si="1">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="39">
+        <f t="shared" ref="Q6" si="2">Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="39">
+        <f t="shared" ref="R6" si="3">R5</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="39">
+        <f t="shared" ref="S6" si="4">S5</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="39">
+        <f t="shared" ref="T6" si="5">T5</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="102"/>
+      <c r="Z6" s="103"/>
+      <c r="AA6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="104">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="104">
+        <f t="shared" ref="AC6:AG6" si="6">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="39">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="39">
+        <f t="shared" ref="AN6" si="7">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="39">
+        <f t="shared" ref="AO6" si="8">AO5</f>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="39">
+        <f t="shared" ref="AP6" si="9">AP5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="39">
+        <f t="shared" ref="AQ6" si="10">AQ5</f>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="39">
+        <f t="shared" ref="AR6" si="11">AR5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="100">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="86">
+        <f t="shared" ref="E7:I7" si="12">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="100">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="86">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="100">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="86">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="39">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="39">
+        <f t="shared" ref="P7:T7" si="13">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB7" s="104">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="104">
+        <f t="shared" ref="AC7:AG7" si="14">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="104">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="104">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="104">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="104">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK7" s="82"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="39">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="39">
+        <f t="shared" ref="AN7:AR7" si="15">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="X2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR6"/>
@@ -1771,172 +3091,172 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="12.875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="7" style="33" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="42" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="42" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="42" customWidth="1"/>
-    <col min="10" max="11" width="9" style="33"/>
-    <col min="12" max="13" width="12.875" style="33" customWidth="1"/>
-    <col min="14" max="14" width="4.875" style="33" customWidth="1"/>
-    <col min="15" max="15" width="6" style="33" customWidth="1"/>
-    <col min="16" max="16" width="4.125" style="33" customWidth="1"/>
-    <col min="17" max="17" width="6" style="33" customWidth="1"/>
-    <col min="18" max="18" width="4.125" style="33" customWidth="1"/>
-    <col min="19" max="19" width="6" style="33" customWidth="1"/>
-    <col min="20" max="20" width="4.125" style="33" customWidth="1"/>
-    <col min="21" max="22" width="9" style="33"/>
-    <col min="23" max="24" width="12.875" style="33" customWidth="1"/>
-    <col min="25" max="25" width="4.875" style="33" customWidth="1"/>
-    <col min="26" max="26" width="5.625" style="33" customWidth="1"/>
-    <col min="27" max="27" width="6.5" style="33" customWidth="1"/>
-    <col min="28" max="28" width="5.875" style="33" customWidth="1"/>
-    <col min="29" max="29" width="4.25" style="33" customWidth="1"/>
-    <col min="30" max="30" width="5.875" style="33" customWidth="1"/>
-    <col min="31" max="31" width="4.25" style="33" customWidth="1"/>
-    <col min="32" max="32" width="5.875" style="33" customWidth="1"/>
-    <col min="33" max="33" width="4.25" style="33" customWidth="1"/>
-    <col min="34" max="35" width="9" style="33"/>
-    <col min="36" max="37" width="12.875" style="33" customWidth="1"/>
-    <col min="38" max="38" width="4.875" style="33" customWidth="1"/>
-    <col min="39" max="39" width="6" style="33" customWidth="1"/>
-    <col min="40" max="40" width="4.125" style="33" customWidth="1"/>
-    <col min="41" max="41" width="6" style="33" customWidth="1"/>
-    <col min="42" max="42" width="4.25" style="33" customWidth="1"/>
-    <col min="43" max="43" width="6" style="33" customWidth="1"/>
-    <col min="44" max="44" width="4.125" style="33" customWidth="1"/>
-    <col min="45" max="16384" width="9" style="33"/>
+    <col min="1" max="2" width="12.875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="7" style="34" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="43" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="43" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="34" customWidth="1"/>
+    <col min="9" max="9" width="5.25" style="43" customWidth="1"/>
+    <col min="10" max="11" width="9" style="34"/>
+    <col min="12" max="13" width="12.875" style="34" customWidth="1"/>
+    <col min="14" max="14" width="4.875" style="34" customWidth="1"/>
+    <col min="15" max="15" width="6" style="34" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="34" customWidth="1"/>
+    <col min="17" max="17" width="6" style="34" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="34" customWidth="1"/>
+    <col min="19" max="19" width="6" style="34" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="34" customWidth="1"/>
+    <col min="21" max="22" width="9" style="34"/>
+    <col min="23" max="24" width="12.875" style="34" customWidth="1"/>
+    <col min="25" max="25" width="4.875" style="34" customWidth="1"/>
+    <col min="26" max="26" width="5.625" style="34" customWidth="1"/>
+    <col min="27" max="27" width="6.5" style="34" customWidth="1"/>
+    <col min="28" max="28" width="5.875" style="34" customWidth="1"/>
+    <col min="29" max="29" width="4.25" style="34" customWidth="1"/>
+    <col min="30" max="30" width="5.875" style="34" customWidth="1"/>
+    <col min="31" max="31" width="4.25" style="34" customWidth="1"/>
+    <col min="32" max="32" width="5.875" style="34" customWidth="1"/>
+    <col min="33" max="33" width="4.25" style="34" customWidth="1"/>
+    <col min="34" max="35" width="9" style="34"/>
+    <col min="36" max="37" width="12.875" style="34" customWidth="1"/>
+    <col min="38" max="38" width="4.875" style="34" customWidth="1"/>
+    <col min="39" max="39" width="6" style="34" customWidth="1"/>
+    <col min="40" max="40" width="4.125" style="34" customWidth="1"/>
+    <col min="41" max="41" width="6" style="34" customWidth="1"/>
+    <col min="42" max="42" width="4.25" style="34" customWidth="1"/>
+    <col min="43" max="43" width="6" style="34" customWidth="1"/>
+    <col min="44" max="44" width="4.125" style="34" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1">
-      <c r="E1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="L2" s="61" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="L2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="59" t="s">
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="W2" s="61" t="s">
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="W2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="59" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="59" t="s">
+      <c r="AB2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AJ2" s="61" t="s">
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AJ2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="59" t="s">
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="59" t="s">
+      <c r="I3" s="60"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59" t="s">
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59" t="s">
+      <c r="R3" s="60"/>
+      <c r="S3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="59"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59" t="s">
+      <c r="T3" s="60"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59" t="s">
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="59"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="59" t="s">
+      <c r="AG3" s="60"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59" t="s">
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59" t="s">
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="59"/>
+      <c r="AR3" s="60"/>
     </row>
     <row r="4" spans="1:44" s="2" customFormat="1">
       <c r="A4" s="7" t="s">
@@ -1951,19 +3271,19 @@
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="42" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="42" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="42" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -2005,7 +3325,7 @@
       <c r="Z4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" s="59"/>
+      <c r="AA4" s="60"/>
       <c r="AB4" s="7" t="s">
         <v>13</v>
       </c>
@@ -2053,191 +3373,191 @@
       </c>
     </row>
     <row r="5" spans="1:44">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="35"/>
-      <c r="L5" s="34" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="36"/>
+      <c r="L5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="W5" s="31" t="s">
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="W5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="X5" s="31" t="s">
+      <c r="X5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="31" t="s">
+      <c r="Z5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="31" t="s">
+      <c r="AA5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AJ5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="AK5" s="34" t="s">
+      <c r="AK5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="AL5" s="31" t="s">
+      <c r="AL5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="35"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="37">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="38">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="39">
         <f t="shared" ref="E6:I6" si="0">E5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="38">
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="39">
         <f>O5</f>
         <v>0</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6" s="39">
         <f t="shared" ref="P6:T6" si="1">P5</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R6" s="38">
+      <c r="R6" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S6" s="38">
+      <c r="S6" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T6" s="38">
+      <c r="T6" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W6" s="60" t="s">
+      <c r="W6" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="39" t="s">
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="38">
+      <c r="AB6" s="39">
         <f>AB5</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="38">
+      <c r="AC6" s="39">
         <f t="shared" ref="AC6:AG6" si="2">AC5</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="38">
+      <c r="AD6" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="38">
+      <c r="AE6" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="38">
+      <c r="AF6" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="38">
+      <c r="AG6" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ6" s="60" t="s">
+      <c r="AJ6" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="38">
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="39">
         <f>AM5</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="38">
+      <c r="AN6" s="39">
         <f t="shared" ref="AN6:AR6" si="3">AN5</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="38">
+      <c r="AO6" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP6" s="38">
+      <c r="AP6" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AQ6" s="38">
+      <c r="AQ6" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AR6" s="38">
+      <c r="AR6" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2288,11 +3608,11 @@
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="54" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="54" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="54" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.875" customWidth="1"/>
     <col min="13" max="13" width="17.5" customWidth="1"/>
     <col min="14" max="14" width="5.25" customWidth="1"/>
@@ -2324,131 +3644,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="3" customFormat="1" ht="20.25">
-      <c r="E1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:44" s="10" customFormat="1" ht="20.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="L2" s="58" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="L2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="56" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
       <c r="U2" s="13"/>
-      <c r="X2" s="58" t="s">
+      <c r="X2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="56" t="s">
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="56" t="s">
+      <c r="AB2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AJ2" s="58" t="s">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AJ2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="56" t="s">
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
     </row>
     <row r="3" spans="1:44" s="10" customFormat="1" ht="20.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="56" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="56" t="s">
+      <c r="I3" s="57"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56" t="s">
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56" t="s">
+      <c r="R3" s="57"/>
+      <c r="S3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="56"/>
+      <c r="T3" s="57"/>
       <c r="U3" s="13"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56" t="s">
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56" t="s">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56" t="s">
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="56"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="56" t="s">
+      <c r="AG3" s="57"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56" t="s">
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="56"/>
+      <c r="AR3" s="57"/>
     </row>
     <row r="4" spans="1:44" s="10" customFormat="1" ht="20.25">
       <c r="A4" s="9" t="s">
@@ -2463,19 +3783,19 @@
       <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -2515,7 +3835,7 @@
       <c r="Z4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="56"/>
+      <c r="AA4" s="57"/>
       <c r="AB4" s="9" t="s">
         <v>13</v>
       </c>
@@ -2563,445 +3883,445 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="20.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="23"/>
-      <c r="L5" s="57" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="24"/>
+      <c r="L5" s="58" t="s">
         <v>28</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="54"/>
-      <c r="X5" s="63" t="s">
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="55"/>
+      <c r="X5" s="64" t="s">
         <v>28</v>
       </c>
       <c r="Y5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Z5" s="43" t="s">
+      <c r="Z5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AA5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AJ5" s="63" t="s">
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AJ5" s="64" t="s">
         <v>28</v>
       </c>
       <c r="AK5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AL5" s="43" t="s">
+      <c r="AL5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="23"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
     </row>
     <row r="6" spans="1:44" ht="20.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="23"/>
-      <c r="L6" s="57"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="24"/>
+      <c r="L6" s="58"/>
       <c r="M6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="54"/>
-      <c r="X6" s="63"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="55"/>
+      <c r="X6" s="64"/>
       <c r="Y6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Z6" s="47" t="s">
+      <c r="Z6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="22" t="s">
+      <c r="AA6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AJ6" s="63"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AJ6" s="64"/>
       <c r="AK6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AL6" s="47" t="s">
+      <c r="AL6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="23"/>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="23"/>
-      <c r="AR6" s="23"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
     </row>
     <row r="7" spans="1:44" ht="20.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="26"/>
-      <c r="L7" s="62" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="27"/>
+      <c r="L7" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="54"/>
-      <c r="X7" s="62" t="s">
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="55"/>
+      <c r="X7" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="25" t="s">
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="50">
+      <c r="AB7" s="51">
         <f t="shared" ref="AB7:AG7" si="0">SUM(AB5:AB6)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="50">
+      <c r="AC7" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="50">
+      <c r="AD7" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="50">
+      <c r="AE7" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="50">
+      <c r="AF7" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="50">
+      <c r="AG7" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ7" s="62" t="s">
+      <c r="AJ7" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="26"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="27"/>
     </row>
     <row r="8" spans="1:44" ht="20.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="49">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="50">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="53">
         <f t="shared" ref="E8:I9" si="1">E5</f>
         <v>0</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="23">
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="24">
         <f>O5</f>
         <v>0</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="24">
         <f t="shared" ref="P8:T8" si="2">P5</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U8" s="54"/>
-      <c r="X8" s="55" t="s">
+      <c r="U8" s="55"/>
+      <c r="X8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="25" t="s">
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AB8" s="50">
+      <c r="AB8" s="51">
         <f t="shared" ref="AB8:AG9" si="3">AB5</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="50">
+      <c r="AC8" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="50">
+      <c r="AD8" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="50">
+      <c r="AE8" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="50">
+      <c r="AF8" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="50">
+      <c r="AG8" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ8" s="55" t="s">
+      <c r="AJ8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="26">
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="27">
         <f>AM5</f>
         <v>0</v>
       </c>
-      <c r="AN8" s="26">
+      <c r="AN8" s="27">
         <f t="shared" ref="AN8:AR8" si="4">AN5</f>
         <v>0</v>
       </c>
-      <c r="AO8" s="26">
+      <c r="AO8" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AP8" s="26">
+      <c r="AP8" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ8" s="26">
+      <c r="AQ8" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AR8" s="26">
+      <c r="AR8" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:44" ht="20.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="49">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="50">
         <f>D6</f>
         <v>0</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="23">
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="24">
         <f>O6</f>
         <v>0</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="24">
         <f t="shared" ref="P9:T9" si="5">P6</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9" s="54"/>
-      <c r="X9" s="55" t="s">
+      <c r="U9" s="55"/>
+      <c r="X9" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="25" t="s">
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="50">
+      <c r="AB9" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="50">
+      <c r="AC9" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="50">
+      <c r="AD9" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="50">
+      <c r="AE9" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="50">
+      <c r="AF9" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="50">
+      <c r="AG9" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="55" t="s">
+      <c r="AJ9" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="26">
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="27">
         <f>AM6</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="26">
+      <c r="AN9" s="27">
         <f t="shared" ref="AN9:AR9" si="6">AN6</f>
         <v>0</v>
       </c>
-      <c r="AO9" s="26">
+      <c r="AO9" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP9" s="26">
+      <c r="AP9" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AQ9" s="26">
+      <c r="AQ9" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AR9" s="26">
+      <c r="AR9" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:44">
-      <c r="Y11" s="51"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="51"/>
+      <c r="Y11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -3061,11 +4381,11 @@
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="53" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="54" customWidth="1"/>
     <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="53" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="54" customWidth="1"/>
     <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="54" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.125" customWidth="1"/>
     <col min="13" max="13" width="18.875" customWidth="1"/>
     <col min="14" max="14" width="5" customWidth="1"/>
@@ -3089,129 +4409,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="3" customFormat="1" ht="20.25">
-      <c r="E1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:44" s="10" customFormat="1" ht="20.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="L2" s="58" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="L2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="56" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="X2" s="58" t="s">
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="X2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="56" t="s">
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="56" t="s">
+      <c r="AB2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AJ2" s="58" t="s">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AJ2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="56" t="s">
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
     </row>
     <row r="3" spans="1:44" s="10" customFormat="1" ht="20.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="56" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="56" t="s">
+      <c r="I3" s="57"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56" t="s">
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56" t="s">
+      <c r="R3" s="57"/>
+      <c r="S3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="56"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56" t="s">
+      <c r="T3" s="57"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56" t="s">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56" t="s">
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="56"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="56" t="s">
+      <c r="AG3" s="57"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56" t="s">
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="56"/>
+      <c r="AR3" s="57"/>
     </row>
     <row r="4" spans="1:44" s="10" customFormat="1" ht="20.25">
       <c r="A4" s="18" t="s">
@@ -3226,19 +4546,19 @@
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="18" t="s">
@@ -3277,7 +4597,7 @@
       <c r="Z4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="56"/>
+      <c r="AA4" s="57"/>
       <c r="AB4" s="18" t="s">
         <v>13</v>
       </c>
@@ -3325,797 +4645,797 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="20.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="23"/>
-      <c r="L5" s="63" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="24"/>
+      <c r="L5" s="64" t="s">
         <v>33</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="X5" s="63" t="s">
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="X5" s="64" t="s">
         <v>33</v>
       </c>
       <c r="Y5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="Z5" s="43" t="s">
+      <c r="Z5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AA5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AJ5" s="63" t="s">
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AJ5" s="64" t="s">
         <v>33</v>
       </c>
       <c r="AK5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AL5" s="43" t="s">
+      <c r="AL5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="23"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
     </row>
     <row r="6" spans="1:44" ht="20.25">
-      <c r="A6" s="63"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="23"/>
-      <c r="L6" s="63"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="24"/>
+      <c r="L6" s="64"/>
       <c r="M6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="X6" s="63"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="X6" s="64"/>
       <c r="Y6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Z6" s="47" t="s">
+      <c r="Z6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="22" t="s">
+      <c r="AA6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AJ6" s="63"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AJ6" s="64"/>
       <c r="AK6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AL6" s="47" t="s">
+      <c r="AL6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="23"/>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="23"/>
-      <c r="AR6" s="23"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
     </row>
     <row r="7" spans="1:44" ht="20.25">
-      <c r="A7" s="63"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="23"/>
-      <c r="L7" s="63"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="24"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="X7" s="63"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="X7" s="64"/>
       <c r="Y7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="Z7" s="22" t="s">
+      <c r="Z7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AA7" s="22" t="s">
+      <c r="AA7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AJ7" s="63"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AJ7" s="64"/>
       <c r="AK7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AL7" s="22" t="s">
+      <c r="AL7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AM7" s="23"/>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="23"/>
-      <c r="AP7" s="23"/>
-      <c r="AQ7" s="23"/>
-      <c r="AR7" s="23"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="24"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="24"/>
     </row>
     <row r="8" spans="1:44" ht="20.25">
-      <c r="A8" s="63"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="23"/>
-      <c r="L8" s="63"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="24"/>
+      <c r="L8" s="64"/>
       <c r="M8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="X8" s="63"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="X8" s="64"/>
       <c r="Y8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Z8" s="22" t="s">
+      <c r="Z8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AA8" s="22" t="s">
+      <c r="AA8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AJ8" s="63"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+      <c r="AJ8" s="64"/>
       <c r="AK8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AL8" s="22" t="s">
+      <c r="AL8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AM8" s="23"/>
-      <c r="AN8" s="23"/>
-      <c r="AO8" s="23"/>
-      <c r="AP8" s="23"/>
-      <c r="AQ8" s="23"/>
-      <c r="AR8" s="23"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="24"/>
     </row>
     <row r="9" spans="1:44" ht="20.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="26"/>
-      <c r="L9" s="62" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="27"/>
+      <c r="L9" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="X9" s="64" t="s">
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="X9" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="25" t="s">
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="26">
+      <c r="AB9" s="27">
         <f t="shared" ref="AB9:AG9" si="0">SUM(AB5:AB8)</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="26">
+      <c r="AC9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="26">
+      <c r="AD9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="26">
+      <c r="AE9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="26">
+      <c r="AF9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="26">
+      <c r="AG9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="62" t="s">
+      <c r="AJ9" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="23"/>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="23"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="63"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="24"/>
     </row>
     <row r="10" spans="1:44" ht="20.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="49">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="50">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="53">
         <f t="shared" ref="E10:I10" si="1">E5</f>
         <v>0</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="55" t="s">
+      <c r="L10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="26">
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="27">
         <f>O5</f>
         <v>0</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="27">
         <f t="shared" ref="P10:T10" si="2">P5</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="26">
+      <c r="R10" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T10" s="26">
+      <c r="T10" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X10" s="67" t="s">
+      <c r="X10" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="25" t="s">
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AB10" s="26">
+      <c r="AB10" s="27">
         <f t="shared" ref="AB10:AG13" si="3">AB5</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="26">
+      <c r="AC10" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="26">
+      <c r="AD10" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="26">
+      <c r="AE10" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="26">
+      <c r="AF10" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="26">
+      <c r="AG10" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ10" s="55" t="s">
+      <c r="AJ10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="26">
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="27">
         <f>AM5</f>
         <v>0</v>
       </c>
-      <c r="AN10" s="23">
+      <c r="AN10" s="24">
         <f t="shared" ref="AN10:AR10" si="4">AN5</f>
         <v>0</v>
       </c>
-      <c r="AO10" s="26">
+      <c r="AO10" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AP10" s="23">
+      <c r="AP10" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ10" s="26">
+      <c r="AQ10" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AR10" s="23">
+      <c r="AR10" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:44" ht="20.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="49">
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="50">
         <f t="shared" ref="D11:I11" si="5">D6</f>
         <v>0</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="53">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="53">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="53">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="26">
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="27">
         <f t="shared" ref="O11:T11" si="6">O6</f>
         <v>0</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R11" s="26">
+      <c r="R11" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S11" s="26">
+      <c r="S11" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T11" s="26">
+      <c r="T11" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X11" s="67" t="s">
+      <c r="X11" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="25" t="s">
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AB11" s="26">
+      <c r="AB11" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="26">
+      <c r="AC11" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="26">
+      <c r="AD11" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="26">
+      <c r="AE11" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="26">
+      <c r="AF11" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="26">
+      <c r="AG11" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ11" s="55" t="s">
+      <c r="AJ11" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="55"/>
-      <c r="AM11" s="26">
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="27">
         <f t="shared" ref="AM11:AR11" si="7">AM6</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="23">
+      <c r="AN11" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AO11" s="26">
+      <c r="AO11" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP11" s="23">
+      <c r="AP11" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ11" s="26">
+      <c r="AQ11" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR11" s="23">
+      <c r="AR11" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:44" ht="20.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="49">
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="50">
         <f t="shared" ref="D12:I12" si="8">D7</f>
         <v>0</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L12" s="55" t="s">
+      <c r="L12" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="26">
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="27">
         <f t="shared" ref="O12:T12" si="9">O7</f>
         <v>0</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X12" s="67" t="s">
+      <c r="X12" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="25" t="s">
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AB12" s="26">
+      <c r="AB12" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="26">
+      <c r="AC12" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="26">
+      <c r="AD12" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="26">
+      <c r="AE12" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="26">
+      <c r="AF12" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="26">
+      <c r="AG12" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ12" s="55" t="s">
+      <c r="AJ12" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="26">
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="27">
         <f t="shared" ref="AM12:AR12" si="10">AM7</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="23">
+      <c r="AN12" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="26">
+      <c r="AO12" s="27">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AP12" s="23">
+      <c r="AP12" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ12" s="26">
+      <c r="AQ12" s="27">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AR12" s="23">
+      <c r="AR12" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:44" ht="20.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="49">
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="50">
         <f t="shared" ref="D13:I13" si="11">D8</f>
         <v>0</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="53">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="53">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="53">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L13" s="55" t="s">
+      <c r="L13" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="26">
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="27">
         <f t="shared" ref="O13:T13" si="12">O8</f>
         <v>0</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R13" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S13" s="26">
+      <c r="S13" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T13" s="26">
+      <c r="T13" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X13" s="67" t="s">
+      <c r="X13" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="25" t="s">
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AB13" s="26">
+      <c r="AB13" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="26">
+      <c r="AC13" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="26">
+      <c r="AD13" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="26">
+      <c r="AE13" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="26">
+      <c r="AF13" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="26">
+      <c r="AG13" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ13" s="55" t="s">
+      <c r="AJ13" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="26">
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="27">
         <f t="shared" ref="AM13:AR13" si="13">AM8</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="23">
+      <c r="AN13" s="24">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AO13" s="26">
+      <c r="AO13" s="27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AP13" s="23">
+      <c r="AP13" s="24">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AQ13" s="26">
+      <c r="AQ13" s="27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AR13" s="23">
+      <c r="AR13" s="24">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="19:19">
-      <c r="S18" s="70"/>
+      <c r="S18" s="71"/>
     </row>
     <row r="19" spans="19:19">
-      <c r="S19" s="70"/>
+      <c r="S19" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -4183,11 +5503,11 @@
     <col min="2" max="2" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="54" customWidth="1"/>
     <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="53" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="54" customWidth="1"/>
     <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="53" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="54" customWidth="1"/>
     <col min="12" max="12" width="15.125" customWidth="1"/>
     <col min="13" max="13" width="10.125" customWidth="1"/>
     <col min="14" max="14" width="5" customWidth="1"/>
@@ -4217,131 +5537,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="3" customFormat="1" ht="20.25">
-      <c r="E1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:44" s="10" customFormat="1" ht="20.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="L2" s="58" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="L2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="56" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
       <c r="U2" s="13"/>
-      <c r="X2" s="58" t="s">
+      <c r="X2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="56" t="s">
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="56" t="s">
+      <c r="AB2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AJ2" s="58" t="s">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AJ2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="56" t="s">
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
     </row>
     <row r="3" spans="1:44" s="10" customFormat="1" ht="20.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="56" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="56" t="s">
+      <c r="I3" s="57"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56" t="s">
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56" t="s">
+      <c r="R3" s="57"/>
+      <c r="S3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="56"/>
+      <c r="T3" s="57"/>
       <c r="U3" s="13"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56" t="s">
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56" t="s">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56" t="s">
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="56"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="56" t="s">
+      <c r="AG3" s="57"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56" t="s">
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="56"/>
+      <c r="AR3" s="57"/>
     </row>
     <row r="4" spans="1:44" s="10" customFormat="1" ht="20.25">
       <c r="A4" s="18" t="s">
@@ -4356,19 +5676,19 @@
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="18" t="s">
@@ -4408,7 +5728,7 @@
       <c r="Z4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="56"/>
+      <c r="AA4" s="57"/>
       <c r="AB4" s="18" t="s">
         <v>13</v>
       </c>
@@ -4456,311 +5776,311 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="20.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="23"/>
-      <c r="L5" s="45" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="24"/>
+      <c r="L5" s="46" t="s">
         <v>38</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="54"/>
-      <c r="X5" s="45" t="s">
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="55"/>
+      <c r="X5" s="46" t="s">
         <v>38</v>
       </c>
       <c r="Y5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="Z5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AA5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AJ5" s="45" t="s">
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AJ5" s="46" t="s">
         <v>38</v>
       </c>
       <c r="AK5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AL5" s="22" t="s">
+      <c r="AL5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="23"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
     </row>
     <row r="6" spans="1:44" ht="20.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="49">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="50">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="53">
         <f t="shared" ref="E6:I6" si="0">E5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="23">
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="24">
         <f>O5</f>
         <v>0</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="24">
         <f t="shared" ref="P6" si="1">P5</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="24">
         <f t="shared" ref="Q6" si="2">Q5</f>
         <v>0</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="24">
         <f t="shared" ref="R6" si="3">R5</f>
         <v>0</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="24">
         <f t="shared" ref="S6" si="4">S5</f>
         <v>0</v>
       </c>
-      <c r="T6" s="23">
+      <c r="T6" s="24">
         <f t="shared" ref="T6" si="5">T5</f>
         <v>0</v>
       </c>
-      <c r="U6" s="54"/>
-      <c r="X6" s="64" t="s">
+      <c r="U6" s="55"/>
+      <c r="X6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="25" t="s">
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="26">
+      <c r="AB6" s="27">
         <f>AB5</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="26">
+      <c r="AC6" s="27">
         <f t="shared" ref="AC6:AG6" si="6">AC5</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="26">
+      <c r="AD6" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="26">
+      <c r="AE6" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="26">
+      <c r="AF6" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="26">
+      <c r="AG6" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ6" s="62" t="s">
+      <c r="AJ6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="AK6" s="62"/>
-      <c r="AL6" s="62"/>
-      <c r="AM6" s="23">
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="24">
         <f>AM5</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="23">
+      <c r="AN6" s="24">
         <f t="shared" ref="AN6" si="7">AN5</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="23">
+      <c r="AO6" s="24">
         <f t="shared" ref="AO6" si="8">AO5</f>
         <v>0</v>
       </c>
-      <c r="AP6" s="23">
+      <c r="AP6" s="24">
         <f t="shared" ref="AP6" si="9">AP5</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="23">
+      <c r="AQ6" s="24">
         <f t="shared" ref="AQ6" si="10">AQ5</f>
         <v>0</v>
       </c>
-      <c r="AR6" s="23">
+      <c r="AR6" s="24">
         <f t="shared" ref="AR6" si="11">AR5</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="20.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="49">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="50">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="53">
         <f t="shared" ref="E7:I7" si="12">E5</f>
         <v>0</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="53">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="53">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="23">
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="24">
         <f>O5</f>
         <v>0</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="24">
         <f t="shared" ref="P7:T7" si="13">P5</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="24">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="24">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="24">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="24">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U7" s="54"/>
-      <c r="X7" s="67" t="s">
+      <c r="U7" s="55"/>
+      <c r="X7" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="25" t="s">
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="26">
+      <c r="AB7" s="27">
         <f>AB5</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="26">
+      <c r="AC7" s="27">
         <f t="shared" ref="AC7:AG7" si="14">AC5</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="26">
+      <c r="AD7" s="27">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="26">
+      <c r="AE7" s="27">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="26">
+      <c r="AF7" s="27">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="26">
+      <c r="AG7" s="27">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ7" s="55" t="s">
+      <c r="AJ7" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="23">
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="24">
         <f>AM5</f>
         <v>0</v>
       </c>
-      <c r="AN7" s="23">
+      <c r="AN7" s="24">
         <f t="shared" ref="AN7:AR7" si="15">AN5</f>
         <v>0</v>
       </c>
-      <c r="AO7" s="23">
+      <c r="AO7" s="24">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AP7" s="23">
+      <c r="AP7" s="24">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AQ7" s="23">
+      <c r="AQ7" s="24">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AR7" s="23">
+      <c r="AR7" s="24">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -4811,175 +6131,175 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="75" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="75" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="75" customWidth="1"/>
-    <col min="4" max="4" width="6.875" style="75" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="83" customWidth="1"/>
-    <col min="6" max="6" width="7" style="75" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="83" customWidth="1"/>
-    <col min="8" max="8" width="7" style="75" customWidth="1"/>
-    <col min="9" max="9" width="5.125" style="83" customWidth="1"/>
-    <col min="10" max="11" width="9" style="75"/>
-    <col min="12" max="12" width="13.25" style="75" customWidth="1"/>
-    <col min="13" max="13" width="15.375" style="75" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="75" customWidth="1"/>
-    <col min="15" max="15" width="6" style="75" customWidth="1"/>
-    <col min="16" max="16" width="3.875" style="75" customWidth="1"/>
-    <col min="17" max="17" width="6" style="75" customWidth="1"/>
-    <col min="18" max="18" width="3.875" style="75" customWidth="1"/>
-    <col min="19" max="19" width="6" style="75" customWidth="1"/>
-    <col min="20" max="20" width="3.875" style="75" customWidth="1"/>
-    <col min="21" max="22" width="9" style="75"/>
-    <col min="23" max="23" width="13.25" style="75" customWidth="1"/>
-    <col min="24" max="24" width="15.375" style="75" customWidth="1"/>
-    <col min="25" max="26" width="4.625" style="75" customWidth="1"/>
-    <col min="27" max="27" width="6.375" style="75" customWidth="1"/>
-    <col min="28" max="28" width="5.75" style="75" customWidth="1"/>
-    <col min="29" max="29" width="4.125" style="75" customWidth="1"/>
-    <col min="30" max="30" width="5.75" style="75" customWidth="1"/>
-    <col min="31" max="31" width="4.125" style="75" customWidth="1"/>
-    <col min="32" max="32" width="5.75" style="75" customWidth="1"/>
-    <col min="33" max="33" width="4.75" style="75" customWidth="1"/>
-    <col min="34" max="35" width="9" style="75"/>
-    <col min="36" max="36" width="13.25" style="75" customWidth="1"/>
-    <col min="37" max="37" width="15.375" style="75" customWidth="1"/>
-    <col min="38" max="38" width="4.625" style="75" customWidth="1"/>
-    <col min="39" max="39" width="6" style="75" customWidth="1"/>
-    <col min="40" max="40" width="3.875" style="75" customWidth="1"/>
-    <col min="41" max="41" width="6" style="75" customWidth="1"/>
-    <col min="42" max="42" width="3.875" style="75" customWidth="1"/>
-    <col min="43" max="43" width="6" style="75" customWidth="1"/>
-    <col min="44" max="44" width="3.875" style="75" customWidth="1"/>
-    <col min="45" max="16384" width="9" style="75"/>
+    <col min="1" max="1" width="13.25" style="76" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="76" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="76" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="76" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="84" customWidth="1"/>
+    <col min="6" max="6" width="7" style="76" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="84" customWidth="1"/>
+    <col min="8" max="8" width="7" style="76" customWidth="1"/>
+    <col min="9" max="9" width="5.125" style="84" customWidth="1"/>
+    <col min="10" max="11" width="9" style="76"/>
+    <col min="12" max="12" width="13.25" style="76" customWidth="1"/>
+    <col min="13" max="13" width="15.375" style="76" customWidth="1"/>
+    <col min="14" max="14" width="4.625" style="76" customWidth="1"/>
+    <col min="15" max="15" width="6" style="76" customWidth="1"/>
+    <col min="16" max="16" width="3.875" style="76" customWidth="1"/>
+    <col min="17" max="17" width="6" style="76" customWidth="1"/>
+    <col min="18" max="18" width="3.875" style="76" customWidth="1"/>
+    <col min="19" max="19" width="6" style="76" customWidth="1"/>
+    <col min="20" max="20" width="3.875" style="76" customWidth="1"/>
+    <col min="21" max="22" width="9" style="76"/>
+    <col min="23" max="23" width="13.25" style="76" customWidth="1"/>
+    <col min="24" max="24" width="15.375" style="76" customWidth="1"/>
+    <col min="25" max="26" width="4.625" style="76" customWidth="1"/>
+    <col min="27" max="27" width="6.375" style="76" customWidth="1"/>
+    <col min="28" max="28" width="5.75" style="76" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="76" customWidth="1"/>
+    <col min="30" max="30" width="5.75" style="76" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="76" customWidth="1"/>
+    <col min="32" max="32" width="5.75" style="76" customWidth="1"/>
+    <col min="33" max="33" width="4.75" style="76" customWidth="1"/>
+    <col min="34" max="35" width="9" style="76"/>
+    <col min="36" max="36" width="13.25" style="76" customWidth="1"/>
+    <col min="37" max="37" width="15.375" style="76" customWidth="1"/>
+    <col min="38" max="38" width="4.625" style="76" customWidth="1"/>
+    <col min="39" max="39" width="6" style="76" customWidth="1"/>
+    <col min="40" max="40" width="3.875" style="76" customWidth="1"/>
+    <col min="41" max="41" width="6" style="76" customWidth="1"/>
+    <col min="42" max="42" width="3.875" style="76" customWidth="1"/>
+    <col min="43" max="43" width="6" style="76" customWidth="1"/>
+    <col min="44" max="44" width="3.875" style="76" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1" ht="18">
-      <c r="E1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" ht="18">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="84"/>
-      <c r="L2" s="59" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="85"/>
+      <c r="L2" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59" t="s">
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="W2" s="59" t="s">
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="W2" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="59" t="s">
+      <c r="AA2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="59" t="s">
+      <c r="AB2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AJ2" s="59" t="s">
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AJ2" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59" t="s">
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1" ht="18">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="59" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="59" t="s">
+      <c r="G3" s="85"/>
+      <c r="H3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59" t="s">
+      <c r="I3" s="85"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59" t="s">
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59" t="s">
+      <c r="R3" s="60"/>
+      <c r="S3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
+      <c r="T3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59" t="s">
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59" t="s">
+      <c r="AG3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59" t="s">
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59" t="s">
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="59"/>
+      <c r="AR3" s="60"/>
     </row>
     <row r="4" spans="1:44" s="2" customFormat="1" ht="18">
       <c r="A4" s="16" t="s">
@@ -4994,19 +6314,19 @@
       <c r="D4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="42" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="42" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="42" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="16" t="s">
@@ -5046,7 +6366,7 @@
         <v>8</v>
       </c>
       <c r="Z4" s="16"/>
-      <c r="AA4" s="59"/>
+      <c r="AA4" s="60"/>
       <c r="AB4" s="16" t="s">
         <v>13</v>
       </c>
@@ -5094,438 +6414,438 @@
       </c>
     </row>
     <row r="5" spans="1:44">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="74"/>
-      <c r="L5" s="71" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="75"/>
+      <c r="L5" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="M5" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="73" t="s">
+      <c r="N5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="76"/>
-      <c r="W5" s="71" t="s">
+      <c r="O5" s="75"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="77"/>
+      <c r="W5" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="72" t="s">
+      <c r="X5" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="Y5" s="73" t="s">
+      <c r="Y5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="31" t="s">
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AJ5" s="71" t="s">
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AJ5" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="AK5" s="72" t="s">
+      <c r="AK5" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="AL5" s="73" t="s">
+      <c r="AL5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="AM5" s="74"/>
-      <c r="AN5" s="76"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="76"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="76"/>
+      <c r="AM5" s="75"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="75"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="75"/>
+      <c r="AR5" s="77"/>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72" t="s">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="74"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="75"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="77" t="s">
+      <c r="N6" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="74"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="76"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="72" t="s">
+      <c r="O6" s="75"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="77"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="77" t="s">
+      <c r="Y6" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="31" t="s">
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="72" t="s">
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="AL6" s="77" t="s">
+      <c r="AL6" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="76"/>
-      <c r="AO6" s="74"/>
-      <c r="AP6" s="76"/>
-      <c r="AQ6" s="74"/>
-      <c r="AR6" s="76"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="75"/>
+      <c r="AP6" s="77"/>
+      <c r="AQ6" s="75"/>
+      <c r="AR6" s="77"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="83"/>
-      <c r="L7" s="60" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="84"/>
+      <c r="L7" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="79"/>
-      <c r="W7" s="60" t="s">
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="80"/>
+      <c r="W7" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="39" t="s">
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="80">
+      <c r="AB7" s="81">
         <f>SUM(AB5:AB6)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="80">
+      <c r="AC7" s="81">
         <f>SUM(AC5:AC6)</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="80">
+      <c r="AD7" s="81">
         <f t="shared" ref="AD7:AG7" si="0">SUM(AD5:AD6)</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="80">
+      <c r="AE7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="80">
+      <c r="AF7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="80">
+      <c r="AG7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ7" s="60" t="s">
+      <c r="AJ7" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="AK7" s="60"/>
-      <c r="AL7" s="60"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="76"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="76"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="76"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="77"/>
+      <c r="AO7" s="75"/>
+      <c r="AP7" s="77"/>
+      <c r="AQ7" s="75"/>
+      <c r="AR7" s="77"/>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="78">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="79">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="86">
         <f t="shared" ref="E8:I9" si="1">E5</f>
         <v>0</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G8" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="85">
+      <c r="I8" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="74">
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="75">
         <f>O5</f>
         <v>0</v>
       </c>
-      <c r="P8" s="76">
+      <c r="P8" s="77">
         <f t="shared" ref="P8:T8" si="2">P5</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="74">
+      <c r="Q8" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="76">
+      <c r="R8" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S8" s="74">
+      <c r="S8" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T8" s="76">
+      <c r="T8" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W8" s="81" t="s">
+      <c r="W8" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="39" t="s">
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AB8" s="80">
+      <c r="AB8" s="81">
         <f>AB5</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="80">
+      <c r="AC8" s="81">
         <f t="shared" ref="AC8:AG9" si="3">AC5</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="80">
+      <c r="AD8" s="81">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="80">
+      <c r="AE8" s="81">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="80">
+      <c r="AF8" s="81">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="80">
+      <c r="AG8" s="81">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ8" s="81" t="s">
+      <c r="AJ8" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="AK8" s="81"/>
-      <c r="AL8" s="81"/>
-      <c r="AM8" s="74">
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="75">
         <f>AM5</f>
         <v>0</v>
       </c>
-      <c r="AN8" s="76">
+      <c r="AN8" s="77">
         <f t="shared" ref="AN8:AR8" si="4">AN5</f>
         <v>0</v>
       </c>
-      <c r="AO8" s="74">
+      <c r="AO8" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AP8" s="76">
+      <c r="AP8" s="77">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ8" s="74">
+      <c r="AQ8" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AR8" s="76">
+      <c r="AR8" s="77">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="78">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="79">
         <f>D6</f>
         <v>0</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="81" t="s">
+      <c r="L9" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="74">
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="75">
         <f>O6</f>
         <v>0</v>
       </c>
-      <c r="P9" s="76">
+      <c r="P9" s="77">
         <f t="shared" ref="P9:T9" si="5">P6</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="74">
+      <c r="Q9" s="75">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R9" s="76">
+      <c r="R9" s="77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S9" s="74">
+      <c r="S9" s="75">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T9" s="76">
+      <c r="T9" s="77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W9" s="81" t="s">
+      <c r="W9" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="39" t="s">
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="80">
+      <c r="AB9" s="81">
         <f>AB6</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="80">
+      <c r="AC9" s="81">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="80">
+      <c r="AD9" s="81">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="80">
+      <c r="AE9" s="81">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="80">
+      <c r="AF9" s="81">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="80">
+      <c r="AG9" s="81">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="81" t="s">
+      <c r="AJ9" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AK9" s="81"/>
-      <c r="AL9" s="81"/>
-      <c r="AM9" s="74">
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="75">
         <f>AM6</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="76">
+      <c r="AN9" s="77">
         <f t="shared" ref="AN9:AR9" si="6">AN6</f>
         <v>0</v>
       </c>
-      <c r="AO9" s="74">
+      <c r="AO9" s="75">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP9" s="76">
+      <c r="AP9" s="77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AQ9" s="74">
+      <c r="AQ9" s="75">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AR9" s="76">
+      <c r="AR9" s="77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5578,8 +6898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5588,11 +6908,11 @@
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="54" customWidth="1"/>
     <col min="6" max="6" width="6.625" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="53" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="54" customWidth="1"/>
     <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="53" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="54" customWidth="1"/>
     <col min="12" max="12" width="8.125" customWidth="1"/>
     <col min="13" max="13" width="17.125" customWidth="1"/>
     <col min="14" max="14" width="5" customWidth="1"/>
@@ -5624,131 +6944,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="3" customFormat="1" ht="20.25">
-      <c r="E1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:44" s="10" customFormat="1" ht="20.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="L2" s="56" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="L2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56" t="s">
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="W2" s="56" t="s">
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="W2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="56" t="s">
+      <c r="AA2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="56" t="s">
+      <c r="AB2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AJ2" s="56" t="s">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AJ2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56" t="s">
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
     </row>
     <row r="3" spans="1:44" s="10" customFormat="1" ht="20.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56" t="s">
+      <c r="I3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56" t="s">
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56" t="s">
+      <c r="R3" s="57"/>
+      <c r="S3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
+      <c r="T3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
       <c r="Z3" s="18"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56" t="s">
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56" t="s">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56" t="s">
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56" t="s">
+      <c r="AG3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56" t="s">
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="56"/>
+      <c r="AR3" s="57"/>
     </row>
     <row r="4" spans="1:44" s="10" customFormat="1" ht="20.25">
       <c r="A4" s="18" t="s">
@@ -5763,19 +7083,19 @@
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="18" t="s">
@@ -5815,7 +7135,7 @@
         <v>8</v>
       </c>
       <c r="Z4" s="18"/>
-      <c r="AA4" s="56"/>
+      <c r="AA4" s="57"/>
       <c r="AB4" s="18" t="s">
         <v>13</v>
       </c>
@@ -5863,435 +7183,435 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="20.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="23"/>
-      <c r="L5" s="63" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="24"/>
+      <c r="L5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="W5" s="63" t="s">
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="W5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="X5" s="45" t="s">
+      <c r="X5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="Y5" s="43" t="s">
+      <c r="Y5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="22" t="s">
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AJ5" s="63" t="s">
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AJ5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="AK5" s="45" t="s">
+      <c r="AK5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="AL5" s="43" t="s">
+      <c r="AL5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="86"/>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="86"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="87"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="87"/>
     </row>
     <row r="6" spans="1:44" ht="20.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="23"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="45" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="24"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="45" t="s">
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="47" t="s">
+      <c r="Y6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="22" t="s">
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="45" t="s">
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AL6" s="47" t="s">
+      <c r="AL6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="23"/>
-      <c r="AP6" s="86"/>
-      <c r="AQ6" s="23"/>
-      <c r="AR6" s="86"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="87"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="87"/>
     </row>
     <row r="7" spans="1:44" ht="20.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="26"/>
-      <c r="L7" s="62" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="27"/>
+      <c r="L7" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="W7" s="62" t="s">
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="W7" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="46">
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="47">
         <f>SUM(AB5:AB6)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="46">
+      <c r="AC7" s="47">
         <f>SUM(AC5:AC6)</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="46">
+      <c r="AD7" s="47">
         <f t="shared" ref="AD7:AG7" si="0">SUM(AD5:AD6)</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="46">
+      <c r="AE7" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="46">
+      <c r="AF7" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="46">
+      <c r="AG7" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ7" s="62" t="s">
+      <c r="AJ7" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="23"/>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="23"/>
-      <c r="AP7" s="86"/>
-      <c r="AQ7" s="23"/>
-      <c r="AR7" s="86"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="87"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="87"/>
     </row>
     <row r="8" spans="1:44" ht="20.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="49">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="50">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="53">
         <f t="shared" ref="E8:I9" si="1">E5</f>
         <v>0</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="23">
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="24">
         <f>O5</f>
         <v>0</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="24">
         <f t="shared" ref="P8:T8" si="2">P5</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W8" s="55" t="s">
+      <c r="W8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
       <c r="Z8" s="17"/>
-      <c r="AA8" s="22" t="s">
+      <c r="AA8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AB8" s="46">
+      <c r="AB8" s="47">
         <f>AB5</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="46">
+      <c r="AC8" s="47">
         <f t="shared" ref="AC8:AG9" si="3">AC5</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="46">
+      <c r="AD8" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="46">
+      <c r="AE8" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="46">
+      <c r="AF8" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="46">
+      <c r="AG8" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ8" s="55" t="s">
+      <c r="AJ8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="23">
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="24">
         <f>AM5</f>
         <v>0</v>
       </c>
-      <c r="AN8" s="23">
+      <c r="AN8" s="24">
         <f t="shared" ref="AN8:AR8" si="4">AN5</f>
         <v>0</v>
       </c>
-      <c r="AO8" s="23">
+      <c r="AO8" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AP8" s="86">
+      <c r="AP8" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ8" s="23">
+      <c r="AQ8" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AR8" s="86">
+      <c r="AR8" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:44" ht="20.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="49">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="50">
         <f>D6</f>
         <v>0</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="23">
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="24">
         <f>O6</f>
         <v>0</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="24">
         <f t="shared" ref="P9:T9" si="5">P6</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W9" s="55" t="s">
+      <c r="W9" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
       <c r="Z9" s="17"/>
-      <c r="AA9" s="22" t="s">
+      <c r="AA9" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AB9" s="46">
+      <c r="AB9" s="47">
         <f>AB6</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="46">
+      <c r="AC9" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="46">
+      <c r="AD9" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="46">
+      <c r="AE9" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="46">
+      <c r="AF9" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="46">
+      <c r="AG9" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="55" t="s">
+      <c r="AJ9" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="23">
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="24">
         <f>AM6</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="23">
+      <c r="AN9" s="24">
         <f t="shared" ref="AN9:AR9" si="6">AN6</f>
         <v>0</v>
       </c>
-      <c r="AO9" s="23">
+      <c r="AO9" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP9" s="86">
+      <c r="AP9" s="87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AQ9" s="23">
+      <c r="AQ9" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AR9" s="86">
+      <c r="AR9" s="87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6338,4 +7658,1404 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR9"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="54" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="54" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="6.5" customWidth="1"/>
+    <col min="16" max="16" width="6.25" customWidth="1"/>
+    <col min="17" max="17" width="6.5" customWidth="1"/>
+    <col min="18" max="18" width="6.25" customWidth="1"/>
+    <col min="19" max="19" width="6.5" customWidth="1"/>
+    <col min="20" max="20" width="6.25" customWidth="1"/>
+    <col min="23" max="23" width="17.5" customWidth="1"/>
+    <col min="24" max="24" width="17.125" customWidth="1"/>
+    <col min="25" max="26" width="5" customWidth="1"/>
+    <col min="27" max="27" width="5.125" customWidth="1"/>
+    <col min="28" max="28" width="6.375" customWidth="1"/>
+    <col min="29" max="29" width="5.25" customWidth="1"/>
+    <col min="30" max="30" width="6.375" customWidth="1"/>
+    <col min="31" max="31" width="5.25" customWidth="1"/>
+    <col min="32" max="32" width="6.375" customWidth="1"/>
+    <col min="33" max="33" width="5.25" customWidth="1"/>
+    <col min="36" max="36" width="17.5" customWidth="1"/>
+    <col min="37" max="37" width="17.125" customWidth="1"/>
+    <col min="38" max="38" width="5" customWidth="1"/>
+    <col min="39" max="39" width="6.5" customWidth="1"/>
+    <col min="40" max="40" width="6.25" customWidth="1"/>
+    <col min="41" max="41" width="6.5" customWidth="1"/>
+    <col min="42" max="42" width="6.25" customWidth="1"/>
+    <col min="43" max="43" width="6.5" customWidth="1"/>
+    <col min="44" max="44" width="6.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="3" customFormat="1" ht="20.25">
+      <c r="E1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A2" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="L2" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="W2" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AJ2" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+    </row>
+    <row r="3" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="57"/>
+    </row>
+    <row r="4" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="20.25">
+      <c r="A5" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="24"/>
+      <c r="L5" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="W5" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AJ5" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL5" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+    </row>
+    <row r="6" spans="1:44" ht="20.25">
+      <c r="A6" s="64"/>
+      <c r="B6" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="24"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
+    </row>
+    <row r="7" spans="1:44" ht="20.25">
+      <c r="A7" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="24"/>
+      <c r="L7" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="W7" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="47">
+        <f>SUM(AB5:AB6)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="47">
+        <f>SUM(AC5:AC6)</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="47">
+        <f t="shared" ref="AD7:AG7" si="0">SUM(AD5:AD6)</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="24"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="24"/>
+    </row>
+    <row r="8" spans="1:44" ht="20.25">
+      <c r="A8" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="45">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="88">
+        <f t="shared" ref="E8:I9" si="1">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="24">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="24">
+        <f t="shared" ref="P8:T8" si="2">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB8" s="47">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="47">
+        <f t="shared" ref="AC8:AG9" si="3">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="24">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="24">
+        <f t="shared" ref="AN8:AR8" si="4">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR8" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" ht="20.25">
+      <c r="A9" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="45">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="24">
+        <f>O6</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="24">
+        <f t="shared" ref="P9:T9" si="5">P6</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB9" s="47">
+        <f>AB6</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="24">
+        <f>AM6</f>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="24">
+        <f t="shared" ref="AN9:AR9" si="6">AN6</f>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="W2:Y3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR7"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="6" style="54" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="6" style="54" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="6" style="54" customWidth="1"/>
+    <col min="12" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="14" max="14" width="5.125" customWidth="1"/>
+    <col min="15" max="15" width="6.625" customWidth="1"/>
+    <col min="16" max="16" width="4.25" customWidth="1"/>
+    <col min="17" max="17" width="6.625" customWidth="1"/>
+    <col min="18" max="18" width="4.25" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="20" width="4.25" customWidth="1"/>
+    <col min="23" max="23" width="8.5" customWidth="1"/>
+    <col min="24" max="24" width="10.625" customWidth="1"/>
+    <col min="25" max="26" width="5.125" customWidth="1"/>
+    <col min="27" max="27" width="5.375" customWidth="1"/>
+    <col min="28" max="28" width="6.5" customWidth="1"/>
+    <col min="29" max="29" width="5.25" customWidth="1"/>
+    <col min="30" max="30" width="6.5" customWidth="1"/>
+    <col min="31" max="31" width="6.25" customWidth="1"/>
+    <col min="32" max="32" width="6.5" customWidth="1"/>
+    <col min="33" max="33" width="6.25" customWidth="1"/>
+    <col min="36" max="36" width="8.5" customWidth="1"/>
+    <col min="37" max="37" width="10.625" customWidth="1"/>
+    <col min="38" max="38" width="5.125" customWidth="1"/>
+    <col min="39" max="39" width="6.625" customWidth="1"/>
+    <col min="40" max="40" width="4.25" customWidth="1"/>
+    <col min="41" max="41" width="6.625" customWidth="1"/>
+    <col min="42" max="42" width="4.25" customWidth="1"/>
+    <col min="43" max="43" width="6.625" customWidth="1"/>
+    <col min="44" max="44" width="4.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="3" customFormat="1" ht="20.25">
+      <c r="E1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A2" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="L2" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="W2" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AJ2" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+    </row>
+    <row r="3" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="57"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="57"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="57"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="57"/>
+    </row>
+    <row r="4" spans="1:44" s="10" customFormat="1" ht="20.25">
+      <c r="A4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="20.25">
+      <c r="A5" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="89"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="24"/>
+      <c r="L5" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="W5" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AJ5" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+    </row>
+    <row r="6" spans="1:44" ht="20.25">
+      <c r="A6" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="89">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="88">
+        <f t="shared" ref="E6:I6" si="0">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="90">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="90">
+        <f t="shared" ref="P6" si="1">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="90">
+        <f t="shared" ref="Q6" si="2">Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="90">
+        <f t="shared" ref="R6" si="3">R5</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="90">
+        <f t="shared" ref="S6" si="4">S5</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="90">
+        <f t="shared" ref="T6" si="5">T5</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="91"/>
+      <c r="AA6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB6" s="24">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="24">
+        <f t="shared" ref="AC6:AG6" si="6">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="24">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="24">
+        <f t="shared" ref="AN6" si="7">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="24">
+        <f t="shared" ref="AO6" si="8">AO5</f>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="24">
+        <f t="shared" ref="AP6" si="9">AP5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="24">
+        <f t="shared" ref="AQ6" si="10">AQ5</f>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="24">
+        <f t="shared" ref="AR6" si="11">AR5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" ht="20.25">
+      <c r="A7" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="89">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="88">
+        <f t="shared" ref="E7:I7" si="12">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="89">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="88">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="89">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="88">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="90">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="90">
+        <f t="shared" ref="P7:T7" si="13">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB7" s="24">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="24">
+        <f t="shared" ref="AC7:AG7" si="14">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="24">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="24">
+        <f t="shared" ref="AN7:AR7" si="15">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="W2:Y3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/storage/excel/summary9_by_tool_fuel.xlsx
+++ b/storage/excel/summary9_by_tool_fuel.xlsx
@@ -2458,7 +2458,7 @@
   <dimension ref="A1:AR7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
